--- a/public/formato/plantilla_techos.xlsx
+++ b/public/formato/plantilla_techos.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
   <si>
     <t xml:space="preserve">Iluminación municipal </t>
   </si>
@@ -427,6 +427,12 @@
   </si>
   <si>
     <t>ZUMPANGO</t>
+  </si>
+  <si>
+    <t>Protección Civil</t>
+  </si>
+  <si>
+    <t>Retención 50% Programa Especial FEFOM</t>
   </si>
 </sst>
 </file>
@@ -450,7 +456,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -469,6 +475,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3F3F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -482,7 +494,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -491,10 +503,10 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -503,8 +515,18 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -540,6 +562,11 @@
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF3F3F"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -814,10 +841,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L128"/>
+  <dimension ref="A1:P128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -832,16 +859,19 @@
     <col min="8" max="8" width="20.28515625" customWidth="1"/>
     <col min="9" max="9" width="15.42578125" customWidth="1"/>
     <col min="10" max="10" width="15" style="4" customWidth="1"/>
-    <col min="11" max="11" width="17.5703125" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" style="4"/>
-    <col min="13" max="13" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" style="15" customWidth="1"/>
+    <col min="12" max="12" width="15" style="4" customWidth="1"/>
+    <col min="13" max="13" width="17.5703125" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" style="4"/>
+    <col min="15" max="15" width="13.7109375" customWidth="1"/>
+    <col min="16" max="16" width="10.140625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="13" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="11" t="s">
@@ -854,14 +884,20 @@
       <c r="H1" s="11"/>
       <c r="I1" s="11"/>
       <c r="J1" s="11"/>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="14"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="11"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="P1" s="16"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="12"/>
+      <c r="B2" s="13"/>
       <c r="C2" s="10" t="s">
         <v>0</v>
       </c>
@@ -878,94 +914,117 @@
         <v>3</v>
       </c>
       <c r="J2" s="10"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="K2" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="L2" s="10"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="3">
-        <v>24874281.059999999</v>
+        <v>0</v>
       </c>
       <c r="C3" s="2">
         <f>(D3*(B3))</f>
-        <v>2984913.7271999996</v>
+        <v>0</v>
       </c>
       <c r="D3" s="5">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <f>(F3*(B3))</f>
-        <v>3482399.3484</v>
+        <v>0</v>
       </c>
       <c r="F3" s="5">
-        <v>0.14000000000000001</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <f>(H3*(B3))</f>
-        <v>2736170.9165999996</v>
+        <v>0</v>
       </c>
       <c r="H3" s="5">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <f>(J3*(B3))</f>
-        <v>3233656.5378</v>
+        <v>0</v>
       </c>
       <c r="J3" s="5">
-        <v>0.13</v>
-      </c>
-      <c r="K3" s="2">
-        <f>(L3*B3)/1</f>
-        <v>12437140.529999999</v>
-      </c>
-      <c r="L3" s="7">
+        <v>0</v>
+      </c>
+      <c r="K3" s="15">
+        <f>(L3*(B3))</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="5">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
+        <f>(N3*B3)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="7">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3" s="7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="4">
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <f t="shared" ref="C4:C67" si="0">(D4*(B4/2))</f>
+        <f t="shared" ref="C4:C67" si="0">(D4*(B4))</f>
         <v>0</v>
       </c>
       <c r="D4" s="5">
         <v>0</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E67" si="1">(F4*(B4/2))</f>
+        <f t="shared" ref="E4:E67" si="1">(F4*(B4))</f>
         <v>0</v>
       </c>
       <c r="F4" s="5">
         <v>0</v>
       </c>
       <c r="G4">
+        <f t="shared" ref="G4:G67" si="2">(H4*(B4))</f>
         <v>0</v>
       </c>
       <c r="H4" s="1">
         <v>0</v>
       </c>
       <c r="I4">
+        <f>(J4*(B4))</f>
         <v>0</v>
       </c>
       <c r="J4" s="5">
         <v>0</v>
       </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="L4" s="5"/>
+      <c r="M4" s="2">
+        <f>(N4*B4)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="4">
@@ -986,26 +1045,30 @@
         <v>0</v>
       </c>
       <c r="G5">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H5" s="1">
         <v>0</v>
       </c>
       <c r="I5">
+        <f>(J5*(B5))</f>
         <v>0</v>
       </c>
       <c r="J5" s="5">
         <v>0</v>
       </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="L5" s="5"/>
+      <c r="M5" s="2">
+        <f>(N5*B5)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="4">
@@ -1026,26 +1089,30 @@
         <v>0</v>
       </c>
       <c r="G6">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H6" s="1">
         <v>0</v>
       </c>
       <c r="I6">
+        <f>(J6*(B6))</f>
         <v>0</v>
       </c>
       <c r="J6" s="5">
         <v>0</v>
       </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="L6" s="5"/>
+      <c r="M6" s="2">
+        <f>(N6*B6)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="4">
@@ -1066,26 +1133,30 @@
         <v>0</v>
       </c>
       <c r="G7">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H7" s="1">
         <v>0</v>
       </c>
       <c r="I7">
+        <f>(J7*(B7))</f>
         <v>0</v>
       </c>
       <c r="J7" s="5">
         <v>0</v>
       </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="L7" s="5"/>
+      <c r="M7" s="2">
+        <f>(N7*B7)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="4">
@@ -1106,26 +1177,30 @@
         <v>0</v>
       </c>
       <c r="G8">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H8" s="1">
         <v>0</v>
       </c>
       <c r="I8">
+        <f>(J8*(B8))</f>
         <v>0</v>
       </c>
       <c r="J8" s="5">
         <v>0</v>
       </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="L8" s="5"/>
+      <c r="M8" s="2">
+        <f>(N8*B8)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="4">
@@ -1146,26 +1221,30 @@
         <v>0</v>
       </c>
       <c r="G9">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H9" s="1">
         <v>0</v>
       </c>
       <c r="I9">
+        <f>(J9*(B9))</f>
         <v>0</v>
       </c>
       <c r="J9" s="5">
         <v>0</v>
       </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="L9" s="5"/>
+      <c r="M9" s="2">
+        <f>(N9*B9)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="4">
@@ -1186,26 +1265,30 @@
         <v>0</v>
       </c>
       <c r="G10">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H10" s="1">
         <v>0</v>
       </c>
       <c r="I10">
+        <f>(J10*(B10))</f>
         <v>0</v>
       </c>
       <c r="J10" s="5">
         <v>0</v>
       </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="L10" s="5"/>
+      <c r="M10" s="2">
+        <f>(N10*B10)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="4">
@@ -1226,26 +1309,30 @@
         <v>0</v>
       </c>
       <c r="G11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H11" s="1">
         <v>0</v>
       </c>
       <c r="I11">
+        <f>(J11*(B11))</f>
         <v>0</v>
       </c>
       <c r="J11" s="5">
         <v>0</v>
       </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="L11" s="5"/>
+      <c r="M11" s="2">
+        <f>(N11*B11)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="4">
@@ -1266,26 +1353,30 @@
         <v>0</v>
       </c>
       <c r="G12">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H12" s="1">
         <v>0</v>
       </c>
       <c r="I12">
+        <f>(J12*(B12))</f>
         <v>0</v>
       </c>
       <c r="J12" s="5">
         <v>0</v>
       </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="L12" s="5"/>
+      <c r="M12" s="2">
+        <f>(N12*B12)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="4">
@@ -1306,26 +1397,30 @@
         <v>0</v>
       </c>
       <c r="G13">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H13" s="1">
         <v>0</v>
       </c>
       <c r="I13">
+        <f>(J13*(B13))</f>
         <v>0</v>
       </c>
       <c r="J13" s="5">
         <v>0</v>
       </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+      <c r="L13" s="5"/>
+      <c r="M13" s="2">
+        <f>(N13*B13)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="4">
@@ -1346,26 +1441,30 @@
         <v>0</v>
       </c>
       <c r="G14">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H14" s="1">
         <v>0</v>
       </c>
       <c r="I14">
+        <f>(J14*(B14))</f>
         <v>0</v>
       </c>
       <c r="J14" s="5">
         <v>0</v>
       </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="L14" s="5"/>
+      <c r="M14" s="2">
+        <f>(N14*B14)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="4">
@@ -1386,26 +1485,30 @@
         <v>0</v>
       </c>
       <c r="G15">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H15" s="1">
         <v>0</v>
       </c>
       <c r="I15">
+        <f>(J15*(B15))</f>
         <v>0</v>
       </c>
       <c r="J15" s="5">
         <v>0</v>
       </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="L15" s="5"/>
+      <c r="M15" s="2">
+        <f>(N15*B15)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="4">
@@ -1426,26 +1529,30 @@
         <v>0</v>
       </c>
       <c r="G16">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H16" s="1">
         <v>0</v>
       </c>
       <c r="I16">
+        <f>(J16*(B16))</f>
         <v>0</v>
       </c>
       <c r="J16" s="5">
         <v>0</v>
       </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+      <c r="L16" s="5"/>
+      <c r="M16" s="2">
+        <f>(N16*B16)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B17" s="4">
@@ -1466,26 +1573,30 @@
         <v>0</v>
       </c>
       <c r="G17">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H17" s="1">
         <v>0</v>
       </c>
       <c r="I17">
+        <f>(J17*(B17))</f>
         <v>0</v>
       </c>
       <c r="J17" s="5">
         <v>0</v>
       </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+      <c r="L17" s="5"/>
+      <c r="M17" s="2">
+        <f>(N17*B17)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N17" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
         <v>23</v>
       </c>
       <c r="B18" s="4">
@@ -1506,26 +1617,30 @@
         <v>0</v>
       </c>
       <c r="G18">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H18" s="1">
         <v>0</v>
       </c>
       <c r="I18">
+        <f>(J18*(B18))</f>
         <v>0</v>
       </c>
       <c r="J18" s="5">
         <v>0</v>
       </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+      <c r="L18" s="5"/>
+      <c r="M18" s="2">
+        <f>(N18*B18)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N18" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B19" s="4">
@@ -1546,26 +1661,30 @@
         <v>0</v>
       </c>
       <c r="G19">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H19" s="1">
         <v>0</v>
       </c>
       <c r="I19">
+        <f>(J19*(B19))</f>
         <v>0</v>
       </c>
       <c r="J19" s="5">
         <v>0</v>
       </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
+      <c r="L19" s="5"/>
+      <c r="M19" s="2">
+        <f>(N19*B19)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N19" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B20" s="4">
@@ -1586,26 +1705,30 @@
         <v>0</v>
       </c>
       <c r="G20">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H20" s="1">
         <v>0</v>
       </c>
       <c r="I20">
+        <f>(J20*(B20))</f>
         <v>0</v>
       </c>
       <c r="J20" s="5">
         <v>0</v>
       </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
+      <c r="L20" s="5"/>
+      <c r="M20" s="2">
+        <f>(N20*B20)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
         <v>26</v>
       </c>
       <c r="B21" s="4">
@@ -1626,26 +1749,30 @@
         <v>0</v>
       </c>
       <c r="G21">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H21" s="1">
         <v>0</v>
       </c>
       <c r="I21">
+        <f>(J21*(B21))</f>
         <v>0</v>
       </c>
       <c r="J21" s="5">
         <v>0</v>
       </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
+      <c r="L21" s="5"/>
+      <c r="M21" s="2">
+        <f>(N21*B21)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N21" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
         <v>27</v>
       </c>
       <c r="B22" s="4">
@@ -1666,26 +1793,30 @@
         <v>0</v>
       </c>
       <c r="G22">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H22" s="1">
         <v>0</v>
       </c>
       <c r="I22">
+        <f>(J22*(B22))</f>
         <v>0</v>
       </c>
       <c r="J22" s="5">
         <v>0</v>
       </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
+      <c r="L22" s="5"/>
+      <c r="M22" s="2">
+        <f>(N22*B22)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N22" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
         <v>28</v>
       </c>
       <c r="B23" s="4">
@@ -1706,26 +1837,30 @@
         <v>0</v>
       </c>
       <c r="G23">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H23" s="1">
         <v>0</v>
       </c>
       <c r="I23">
+        <f>(J23*(B23))</f>
         <v>0</v>
       </c>
       <c r="J23" s="5">
         <v>0</v>
       </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
+      <c r="L23" s="5"/>
+      <c r="M23" s="2">
+        <f>(N23*B23)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N23" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
         <v>29</v>
       </c>
       <c r="B24" s="4">
@@ -1746,26 +1881,30 @@
         <v>0</v>
       </c>
       <c r="G24">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H24" s="1">
         <v>0</v>
       </c>
       <c r="I24">
+        <f>(J24*(B24))</f>
         <v>0</v>
       </c>
       <c r="J24" s="5">
         <v>0</v>
       </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
+      <c r="L24" s="5"/>
+      <c r="M24" s="2">
+        <f>(N24*B24)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N24" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B25" s="4">
@@ -1786,26 +1925,30 @@
         <v>0</v>
       </c>
       <c r="G25">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H25" s="1">
         <v>0</v>
       </c>
       <c r="I25">
+        <f>(J25*(B25))</f>
         <v>0</v>
       </c>
       <c r="J25" s="5">
         <v>0</v>
       </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
+      <c r="L25" s="5"/>
+      <c r="M25" s="2">
+        <f>(N25*B25)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N25" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
         <v>31</v>
       </c>
       <c r="B26" s="4">
@@ -1826,26 +1969,30 @@
         <v>0</v>
       </c>
       <c r="G26">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H26" s="1">
         <v>0</v>
       </c>
       <c r="I26">
+        <f>(J26*(B26))</f>
         <v>0</v>
       </c>
       <c r="J26" s="5">
         <v>0</v>
       </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
+      <c r="L26" s="5"/>
+      <c r="M26" s="2">
+        <f>(N26*B26)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N26" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
         <v>32</v>
       </c>
       <c r="B27" s="4">
@@ -1866,26 +2013,30 @@
         <v>0</v>
       </c>
       <c r="G27">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H27" s="1">
         <v>0</v>
       </c>
       <c r="I27">
+        <f>(J27*(B27))</f>
         <v>0</v>
       </c>
       <c r="J27" s="5">
         <v>0</v>
       </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
+      <c r="L27" s="5"/>
+      <c r="M27" s="2">
+        <f>(N27*B27)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N27" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
         <v>33</v>
       </c>
       <c r="B28" s="4">
@@ -1906,26 +2057,30 @@
         <v>0</v>
       </c>
       <c r="G28">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H28" s="1">
         <v>0</v>
       </c>
       <c r="I28">
+        <f>(J28*(B28))</f>
         <v>0</v>
       </c>
       <c r="J28" s="5">
         <v>0</v>
       </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
+      <c r="L28" s="5"/>
+      <c r="M28" s="2">
+        <f>(N28*B28)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N28" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
         <v>34</v>
       </c>
       <c r="B29" s="4">
@@ -1946,26 +2101,30 @@
         <v>0</v>
       </c>
       <c r="G29">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H29" s="1">
         <v>0</v>
       </c>
       <c r="I29">
+        <f>(J29*(B29))</f>
         <v>0</v>
       </c>
       <c r="J29" s="5">
         <v>0</v>
       </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
+      <c r="L29" s="5"/>
+      <c r="M29" s="2">
+        <f>(N29*B29)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N29" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
         <v>35</v>
       </c>
       <c r="B30" s="4">
@@ -1986,26 +2145,30 @@
         <v>0</v>
       </c>
       <c r="G30">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H30" s="1">
         <v>0</v>
       </c>
       <c r="I30">
+        <f>(J30*(B30))</f>
         <v>0</v>
       </c>
       <c r="J30" s="5">
         <v>0</v>
       </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
+      <c r="L30" s="5"/>
+      <c r="M30" s="2">
+        <f>(N30*B30)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N30" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
         <v>36</v>
       </c>
       <c r="B31" s="4">
@@ -2026,26 +2189,30 @@
         <v>0</v>
       </c>
       <c r="G31">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H31" s="1">
         <v>0</v>
       </c>
       <c r="I31">
+        <f>(J31*(B31))</f>
         <v>0</v>
       </c>
       <c r="J31" s="5">
         <v>0</v>
       </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
+      <c r="L31" s="5"/>
+      <c r="M31" s="2">
+        <f>(N31*B31)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N31" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
         <v>37</v>
       </c>
       <c r="B32" s="4">
@@ -2066,26 +2233,30 @@
         <v>0</v>
       </c>
       <c r="G32">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H32" s="1">
         <v>0</v>
       </c>
       <c r="I32">
+        <f>(J32*(B32))</f>
         <v>0</v>
       </c>
       <c r="J32" s="5">
         <v>0</v>
       </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="s">
+      <c r="L32" s="5"/>
+      <c r="M32" s="2">
+        <f>(N32*B32)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N32" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
         <v>38</v>
       </c>
       <c r="B33" s="4">
@@ -2106,26 +2277,30 @@
         <v>0</v>
       </c>
       <c r="G33">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H33" s="1">
         <v>0</v>
       </c>
       <c r="I33">
+        <f>(J33*(B33))</f>
         <v>0</v>
       </c>
       <c r="J33" s="5">
         <v>0</v>
       </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="12" t="s">
+      <c r="L33" s="5"/>
+      <c r="M33" s="2">
+        <f>(N33*B33)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N33" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
         <v>39</v>
       </c>
       <c r="B34" s="4">
@@ -2146,26 +2321,30 @@
         <v>0</v>
       </c>
       <c r="G34">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H34" s="1">
         <v>0</v>
       </c>
       <c r="I34">
+        <f>(J34*(B34))</f>
         <v>0</v>
       </c>
       <c r="J34" s="5">
         <v>0</v>
       </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="12" t="s">
+      <c r="L34" s="5"/>
+      <c r="M34" s="2">
+        <f>(N34*B34)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N34" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
         <v>40</v>
       </c>
       <c r="B35" s="4">
@@ -2186,26 +2365,30 @@
         <v>0</v>
       </c>
       <c r="G35">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H35" s="1">
         <v>0</v>
       </c>
       <c r="I35">
+        <f>(J35*(B35))</f>
         <v>0</v>
       </c>
       <c r="J35" s="5">
         <v>0</v>
       </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="s">
+      <c r="L35" s="5"/>
+      <c r="M35" s="2">
+        <f>(N35*B35)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N35" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
         <v>41</v>
       </c>
       <c r="B36" s="4">
@@ -2226,26 +2409,30 @@
         <v>0</v>
       </c>
       <c r="G36">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H36" s="1">
         <v>0</v>
       </c>
       <c r="I36">
+        <f>(J36*(B36))</f>
         <v>0</v>
       </c>
       <c r="J36" s="5">
         <v>0</v>
       </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="12" t="s">
+      <c r="L36" s="5"/>
+      <c r="M36" s="2">
+        <f>(N36*B36)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N36" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
         <v>42</v>
       </c>
       <c r="B37" s="4">
@@ -2266,26 +2453,30 @@
         <v>0</v>
       </c>
       <c r="G37">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H37" s="1">
         <v>0</v>
       </c>
       <c r="I37">
+        <f>(J37*(B37))</f>
         <v>0</v>
       </c>
       <c r="J37" s="5">
         <v>0</v>
       </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="12" t="s">
+      <c r="L37" s="5"/>
+      <c r="M37" s="2">
+        <f>(N37*B37)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N37" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
         <v>43</v>
       </c>
       <c r="B38" s="4">
@@ -2306,26 +2497,30 @@
         <v>0</v>
       </c>
       <c r="G38">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H38" s="1">
         <v>0</v>
       </c>
       <c r="I38">
+        <f>(J38*(B38))</f>
         <v>0</v>
       </c>
       <c r="J38" s="5">
         <v>0</v>
       </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="12" t="s">
+      <c r="L38" s="5"/>
+      <c r="M38" s="2">
+        <f>(N38*B38)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N38" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
         <v>44</v>
       </c>
       <c r="B39" s="4">
@@ -2346,26 +2541,30 @@
         <v>0</v>
       </c>
       <c r="G39">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H39" s="1">
         <v>0</v>
       </c>
       <c r="I39">
+        <f>(J39*(B39))</f>
         <v>0</v>
       </c>
       <c r="J39" s="5">
         <v>0</v>
       </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="L39" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="12" t="s">
+      <c r="L39" s="5"/>
+      <c r="M39" s="2">
+        <f>(N39*B39)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N39" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
         <v>45</v>
       </c>
       <c r="B40" s="4">
@@ -2386,26 +2585,30 @@
         <v>0</v>
       </c>
       <c r="G40">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H40" s="1">
         <v>0</v>
       </c>
       <c r="I40">
+        <f>(J40*(B40))</f>
         <v>0</v>
       </c>
       <c r="J40" s="5">
         <v>0</v>
       </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="L40" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="12" t="s">
+      <c r="L40" s="5"/>
+      <c r="M40" s="2">
+        <f>(N40*B40)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N40" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
         <v>46</v>
       </c>
       <c r="B41" s="4">
@@ -2426,26 +2629,30 @@
         <v>0</v>
       </c>
       <c r="G41">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H41" s="1">
         <v>0</v>
       </c>
       <c r="I41">
+        <f>(J41*(B41))</f>
         <v>0</v>
       </c>
       <c r="J41" s="5">
         <v>0</v>
       </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="L41" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="12" t="s">
+      <c r="L41" s="5"/>
+      <c r="M41" s="2">
+        <f>(N41*B41)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N41" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
         <v>47</v>
       </c>
       <c r="B42" s="4">
@@ -2466,26 +2673,30 @@
         <v>0</v>
       </c>
       <c r="G42">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H42" s="1">
         <v>0</v>
       </c>
       <c r="I42">
+        <f>(J42*(B42))</f>
         <v>0</v>
       </c>
       <c r="J42" s="5">
         <v>0</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="12" t="s">
+      <c r="L42" s="5"/>
+      <c r="M42" s="2">
+        <f>(N42*B42)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N42" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
         <v>48</v>
       </c>
       <c r="B43" s="4">
@@ -2506,26 +2717,30 @@
         <v>0</v>
       </c>
       <c r="G43">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H43" s="1">
         <v>0</v>
       </c>
       <c r="I43">
+        <f>(J43*(B43))</f>
         <v>0</v>
       </c>
       <c r="J43" s="5">
         <v>0</v>
       </c>
-      <c r="K43">
-        <v>0</v>
-      </c>
-      <c r="L43" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="12" t="s">
+      <c r="L43" s="5"/>
+      <c r="M43" s="2">
+        <f>(N43*B43)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N43" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
         <v>49</v>
       </c>
       <c r="B44" s="4">
@@ -2546,26 +2761,30 @@
         <v>0</v>
       </c>
       <c r="G44">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H44" s="1">
         <v>0</v>
       </c>
       <c r="I44">
+        <f>(J44*(B44))</f>
         <v>0</v>
       </c>
       <c r="J44" s="5">
         <v>0</v>
       </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
-      <c r="L44" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="12" t="s">
+      <c r="L44" s="5"/>
+      <c r="M44" s="2">
+        <f>(N44*B44)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N44" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
         <v>50</v>
       </c>
       <c r="B45" s="4">
@@ -2586,26 +2805,30 @@
         <v>0</v>
       </c>
       <c r="G45">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H45" s="1">
         <v>0</v>
       </c>
       <c r="I45">
+        <f>(J45*(B45))</f>
         <v>0</v>
       </c>
       <c r="J45" s="5">
         <v>0</v>
       </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
-      <c r="L45" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="12" t="s">
+      <c r="L45" s="5"/>
+      <c r="M45" s="2">
+        <f>(N45*B45)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N45" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="s">
         <v>51</v>
       </c>
       <c r="B46" s="4">
@@ -2626,26 +2849,30 @@
         <v>0</v>
       </c>
       <c r="G46">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H46" s="1">
         <v>0</v>
       </c>
       <c r="I46">
+        <f>(J46*(B46))</f>
         <v>0</v>
       </c>
       <c r="J46" s="5">
         <v>0</v>
       </c>
-      <c r="K46">
-        <v>0</v>
-      </c>
-      <c r="L46" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="12" t="s">
+      <c r="L46" s="5"/>
+      <c r="M46" s="2">
+        <f>(N46*B46)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N46" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
         <v>52</v>
       </c>
       <c r="B47" s="4">
@@ -2666,26 +2893,30 @@
         <v>0</v>
       </c>
       <c r="G47">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H47" s="1">
         <v>0</v>
       </c>
       <c r="I47">
+        <f>(J47*(B47))</f>
         <v>0</v>
       </c>
       <c r="J47" s="5">
         <v>0</v>
       </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
-      <c r="L47" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="12" t="s">
+      <c r="L47" s="5"/>
+      <c r="M47" s="2">
+        <f>(N47*B47)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N47" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="8" t="s">
         <v>53</v>
       </c>
       <c r="B48" s="4">
@@ -2706,26 +2937,30 @@
         <v>0</v>
       </c>
       <c r="G48">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H48" s="1">
         <v>0</v>
       </c>
       <c r="I48">
+        <f>(J48*(B48))</f>
         <v>0</v>
       </c>
       <c r="J48" s="5">
         <v>0</v>
       </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="L48" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="12" t="s">
+      <c r="L48" s="5"/>
+      <c r="M48" s="2">
+        <f>(N48*B48)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N48" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" s="8" t="s">
         <v>54</v>
       </c>
       <c r="B49" s="4">
@@ -2746,26 +2981,30 @@
         <v>0</v>
       </c>
       <c r="G49">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H49" s="1">
         <v>0</v>
       </c>
       <c r="I49">
+        <f>(J49*(B49))</f>
         <v>0</v>
       </c>
       <c r="J49" s="5">
         <v>0</v>
       </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-      <c r="L49" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="12" t="s">
+      <c r="L49" s="5"/>
+      <c r="M49" s="2">
+        <f>(N49*B49)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N49" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" s="8" t="s">
         <v>55</v>
       </c>
       <c r="B50" s="4">
@@ -2786,26 +3025,30 @@
         <v>0</v>
       </c>
       <c r="G50">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H50" s="1">
         <v>0</v>
       </c>
       <c r="I50">
+        <f>(J50*(B50))</f>
         <v>0</v>
       </c>
       <c r="J50" s="5">
         <v>0</v>
       </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-      <c r="L50" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="12" t="s">
+      <c r="L50" s="5"/>
+      <c r="M50" s="2">
+        <f>(N50*B50)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N50" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" s="8" t="s">
         <v>56</v>
       </c>
       <c r="B51" s="4">
@@ -2826,26 +3069,30 @@
         <v>0</v>
       </c>
       <c r="G51">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H51" s="1">
         <v>0</v>
       </c>
       <c r="I51">
+        <f>(J51*(B51))</f>
         <v>0</v>
       </c>
       <c r="J51" s="5">
         <v>0</v>
       </c>
-      <c r="K51">
-        <v>0</v>
-      </c>
-      <c r="L51" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="12" t="s">
+      <c r="L51" s="5"/>
+      <c r="M51" s="2">
+        <f>(N51*B51)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N51" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" s="8" t="s">
         <v>57</v>
       </c>
       <c r="B52" s="4">
@@ -2866,26 +3113,30 @@
         <v>0</v>
       </c>
       <c r="G52">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H52" s="1">
         <v>0</v>
       </c>
       <c r="I52">
+        <f>(J52*(B52))</f>
         <v>0</v>
       </c>
       <c r="J52" s="5">
         <v>0</v>
       </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
-      <c r="L52" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="12" t="s">
+      <c r="L52" s="5"/>
+      <c r="M52" s="2">
+        <f>(N52*B52)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N52" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" s="8" t="s">
         <v>58</v>
       </c>
       <c r="B53" s="4">
@@ -2906,26 +3157,30 @@
         <v>0</v>
       </c>
       <c r="G53">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H53" s="1">
         <v>0</v>
       </c>
       <c r="I53">
+        <f>(J53*(B53))</f>
         <v>0</v>
       </c>
       <c r="J53" s="5">
         <v>0</v>
       </c>
-      <c r="K53">
-        <v>0</v>
-      </c>
-      <c r="L53" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="12" t="s">
+      <c r="L53" s="5"/>
+      <c r="M53" s="2">
+        <f>(N53*B53)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N53" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" s="8" t="s">
         <v>59</v>
       </c>
       <c r="B54" s="4">
@@ -2946,26 +3201,30 @@
         <v>0</v>
       </c>
       <c r="G54">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H54" s="1">
         <v>0</v>
       </c>
       <c r="I54">
+        <f>(J54*(B54))</f>
         <v>0</v>
       </c>
       <c r="J54" s="5">
         <v>0</v>
       </c>
-      <c r="K54">
-        <v>0</v>
-      </c>
-      <c r="L54" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="12" t="s">
+      <c r="L54" s="5"/>
+      <c r="M54" s="2">
+        <f>(N54*B54)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N54" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" s="8" t="s">
         <v>60</v>
       </c>
       <c r="B55" s="4">
@@ -2986,26 +3245,30 @@
         <v>0</v>
       </c>
       <c r="G55">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H55" s="1">
         <v>0</v>
       </c>
       <c r="I55">
+        <f>(J55*(B55))</f>
         <v>0</v>
       </c>
       <c r="J55" s="5">
         <v>0</v>
       </c>
-      <c r="K55">
-        <v>0</v>
-      </c>
-      <c r="L55" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="12" t="s">
+      <c r="L55" s="5"/>
+      <c r="M55" s="2">
+        <f>(N55*B55)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N55" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" s="8" t="s">
         <v>61</v>
       </c>
       <c r="B56" s="4">
@@ -3026,26 +3289,30 @@
         <v>0</v>
       </c>
       <c r="G56">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H56" s="1">
         <v>0</v>
       </c>
       <c r="I56">
+        <f>(J56*(B56))</f>
         <v>0</v>
       </c>
       <c r="J56" s="5">
         <v>0</v>
       </c>
-      <c r="K56">
-        <v>0</v>
-      </c>
-      <c r="L56" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="12" t="s">
+      <c r="L56" s="5"/>
+      <c r="M56" s="2">
+        <f>(N56*B56)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N56" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" s="8" t="s">
         <v>62</v>
       </c>
       <c r="B57" s="4">
@@ -3066,26 +3333,30 @@
         <v>0</v>
       </c>
       <c r="G57">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H57" s="1">
         <v>0</v>
       </c>
       <c r="I57">
+        <f>(J57*(B57))</f>
         <v>0</v>
       </c>
       <c r="J57" s="5">
         <v>0</v>
       </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
-      <c r="L57" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="12" t="s">
+      <c r="L57" s="5"/>
+      <c r="M57" s="2">
+        <f>(N57*B57)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N57" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="8" t="s">
         <v>63</v>
       </c>
       <c r="B58" s="4">
@@ -3106,26 +3377,30 @@
         <v>0</v>
       </c>
       <c r="G58">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H58" s="1">
         <v>0</v>
       </c>
       <c r="I58">
+        <f>(J58*(B58))</f>
         <v>0</v>
       </c>
       <c r="J58" s="5">
         <v>0</v>
       </c>
-      <c r="K58">
-        <v>0</v>
-      </c>
-      <c r="L58" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="12" t="s">
+      <c r="L58" s="5"/>
+      <c r="M58" s="2">
+        <f>(N58*B58)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N58" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" s="8" t="s">
         <v>64</v>
       </c>
       <c r="B59" s="4">
@@ -3146,26 +3421,30 @@
         <v>0</v>
       </c>
       <c r="G59">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H59" s="1">
         <v>0</v>
       </c>
       <c r="I59">
+        <f>(J59*(B59))</f>
         <v>0</v>
       </c>
       <c r="J59" s="5">
         <v>0</v>
       </c>
-      <c r="K59">
-        <v>0</v>
-      </c>
-      <c r="L59" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="12" t="s">
+      <c r="L59" s="5"/>
+      <c r="M59" s="2">
+        <f>(N59*B59)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N59" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" s="8" t="s">
         <v>65</v>
       </c>
       <c r="B60" s="4">
@@ -3186,26 +3465,30 @@
         <v>0</v>
       </c>
       <c r="G60">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H60" s="1">
         <v>0</v>
       </c>
       <c r="I60">
+        <f>(J60*(B60))</f>
         <v>0</v>
       </c>
       <c r="J60" s="5">
         <v>0</v>
       </c>
-      <c r="K60">
-        <v>0</v>
-      </c>
-      <c r="L60" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="12" t="s">
+      <c r="L60" s="5"/>
+      <c r="M60" s="2">
+        <f>(N60*B60)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N60" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" s="8" t="s">
         <v>66</v>
       </c>
       <c r="B61" s="4">
@@ -3226,26 +3509,30 @@
         <v>0</v>
       </c>
       <c r="G61">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H61" s="1">
         <v>0</v>
       </c>
       <c r="I61">
+        <f>(J61*(B61))</f>
         <v>0</v>
       </c>
       <c r="J61" s="5">
         <v>0</v>
       </c>
-      <c r="K61">
-        <v>0</v>
-      </c>
-      <c r="L61" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="12" t="s">
+      <c r="L61" s="5"/>
+      <c r="M61" s="2">
+        <f>(N61*B61)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N61" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62" s="8" t="s">
         <v>67</v>
       </c>
       <c r="B62" s="4">
@@ -3266,26 +3553,30 @@
         <v>0</v>
       </c>
       <c r="G62">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H62" s="1">
         <v>0</v>
       </c>
       <c r="I62">
+        <f>(J62*(B62))</f>
         <v>0</v>
       </c>
       <c r="J62" s="5">
         <v>0</v>
       </c>
-      <c r="K62">
-        <v>0</v>
-      </c>
-      <c r="L62" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="12" t="s">
+      <c r="L62" s="5"/>
+      <c r="M62" s="2">
+        <f>(N62*B62)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N62" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63" s="8" t="s">
         <v>68</v>
       </c>
       <c r="B63" s="4">
@@ -3306,26 +3597,30 @@
         <v>0</v>
       </c>
       <c r="G63">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H63" s="1">
         <v>0</v>
       </c>
       <c r="I63">
+        <f>(J63*(B63))</f>
         <v>0</v>
       </c>
       <c r="J63" s="5">
         <v>0</v>
       </c>
-      <c r="K63">
-        <v>0</v>
-      </c>
-      <c r="L63" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="12" t="s">
+      <c r="L63" s="5"/>
+      <c r="M63" s="2">
+        <f>(N63*B63)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N63" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64" s="8" t="s">
         <v>69</v>
       </c>
       <c r="B64" s="4">
@@ -3346,26 +3641,30 @@
         <v>0</v>
       </c>
       <c r="G64">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H64" s="1">
         <v>0</v>
       </c>
       <c r="I64">
+        <f>(J64*(B64))</f>
         <v>0</v>
       </c>
       <c r="J64" s="5">
         <v>0</v>
       </c>
-      <c r="K64">
-        <v>0</v>
-      </c>
-      <c r="L64" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="12" t="s">
+      <c r="L64" s="5"/>
+      <c r="M64" s="2">
+        <f>(N64*B64)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N64" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A65" s="8" t="s">
         <v>70</v>
       </c>
       <c r="B65" s="4">
@@ -3386,26 +3685,30 @@
         <v>0</v>
       </c>
       <c r="G65">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H65" s="1">
         <v>0</v>
       </c>
       <c r="I65">
+        <f>(J65*(B65))</f>
         <v>0</v>
       </c>
       <c r="J65" s="5">
         <v>0</v>
       </c>
-      <c r="K65">
-        <v>0</v>
-      </c>
-      <c r="L65" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="12" t="s">
+      <c r="L65" s="5"/>
+      <c r="M65" s="2">
+        <f>(N65*B65)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N65" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66" s="8" t="s">
         <v>71</v>
       </c>
       <c r="B66" s="4">
@@ -3426,26 +3729,30 @@
         <v>0</v>
       </c>
       <c r="G66">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H66" s="1">
         <v>0</v>
       </c>
       <c r="I66">
+        <f>(J66*(B66))</f>
         <v>0</v>
       </c>
       <c r="J66" s="5">
         <v>0</v>
       </c>
-      <c r="K66">
-        <v>0</v>
-      </c>
-      <c r="L66" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="12" t="s">
+      <c r="L66" s="5"/>
+      <c r="M66" s="2">
+        <f>(N66*B66)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N66" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A67" s="8" t="s">
         <v>72</v>
       </c>
       <c r="B67" s="4">
@@ -3466,2474 +3773,2724 @@
         <v>0</v>
       </c>
       <c r="G67">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H67" s="1">
         <v>0</v>
       </c>
       <c r="I67">
+        <f>(J67*(B67))</f>
         <v>0</v>
       </c>
       <c r="J67" s="5">
         <v>0</v>
       </c>
-      <c r="K67">
-        <v>0</v>
-      </c>
-      <c r="L67" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="12" t="s">
+      <c r="L67" s="5"/>
+      <c r="M67" s="2">
+        <f>(N67*B67)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N67" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A68" s="8" t="s">
         <v>73</v>
       </c>
       <c r="B68" s="4">
         <v>0</v>
       </c>
       <c r="C68" s="2">
-        <f t="shared" ref="C68:C128" si="2">(D68*(B68/2))</f>
+        <f t="shared" ref="C68:C128" si="3">(D68*(B68))</f>
         <v>0</v>
       </c>
       <c r="D68" s="5">
         <v>0</v>
       </c>
       <c r="E68">
-        <f t="shared" ref="E68:E128" si="3">(F68*(B68/2))</f>
+        <f t="shared" ref="E68:E128" si="4">(F68*(B68))</f>
         <v>0</v>
       </c>
       <c r="F68" s="5">
         <v>0</v>
       </c>
       <c r="G68">
+        <f t="shared" ref="G68:G128" si="5">(H68*(B68))</f>
         <v>0</v>
       </c>
       <c r="H68" s="1">
         <v>0</v>
       </c>
       <c r="I68">
+        <f>(J68*(B68))</f>
         <v>0</v>
       </c>
       <c r="J68" s="5">
         <v>0</v>
       </c>
-      <c r="K68">
-        <v>0</v>
-      </c>
-      <c r="L68" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="12" t="s">
+      <c r="L68" s="5"/>
+      <c r="M68" s="2">
+        <f>(N68*B68)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N68" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A69" s="8" t="s">
         <v>74</v>
       </c>
       <c r="B69" s="4">
         <v>0</v>
       </c>
       <c r="C69" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D69" s="5">
         <v>0</v>
       </c>
       <c r="E69">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F69" s="5">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H69" s="1">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <f>(J69*(B69))</f>
+        <v>0</v>
+      </c>
+      <c r="J69" s="5">
+        <v>0</v>
+      </c>
+      <c r="L69" s="5"/>
+      <c r="M69" s="2">
+        <f>(N69*B69)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N69" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A70" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B70" s="4">
+        <v>0</v>
+      </c>
+      <c r="C70" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F69" s="5">
-        <v>0</v>
-      </c>
-      <c r="G69">
-        <v>0</v>
-      </c>
-      <c r="H69" s="1">
-        <v>0</v>
-      </c>
-      <c r="I69">
-        <v>0</v>
-      </c>
-      <c r="J69" s="5">
-        <v>0</v>
-      </c>
-      <c r="K69">
-        <v>0</v>
-      </c>
-      <c r="L69" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B70" s="4">
-        <v>0</v>
-      </c>
-      <c r="C70" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="D70" s="5">
         <v>0</v>
       </c>
       <c r="E70">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F70" s="5">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H70" s="1">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <f>(J70*(B70))</f>
+        <v>0</v>
+      </c>
+      <c r="J70" s="5">
+        <v>0</v>
+      </c>
+      <c r="L70" s="5"/>
+      <c r="M70" s="2">
+        <f>(N70*B70)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N70" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A71" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B71" s="4">
+        <v>0</v>
+      </c>
+      <c r="C71" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F70" s="5">
-        <v>0</v>
-      </c>
-      <c r="G70">
-        <v>0</v>
-      </c>
-      <c r="H70" s="1">
-        <v>0</v>
-      </c>
-      <c r="I70">
-        <v>0</v>
-      </c>
-      <c r="J70" s="5">
-        <v>0</v>
-      </c>
-      <c r="K70">
-        <v>0</v>
-      </c>
-      <c r="L70" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="B71" s="4">
-        <v>0</v>
-      </c>
-      <c r="C71" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="D71" s="5">
         <v>0</v>
       </c>
       <c r="E71">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F71" s="5">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H71" s="1">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <f>(J71*(B71))</f>
+        <v>0</v>
+      </c>
+      <c r="J71" s="5">
+        <v>0</v>
+      </c>
+      <c r="L71" s="5"/>
+      <c r="M71" s="2">
+        <f>(N71*B71)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N71" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A72" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B72" s="4">
+        <v>0</v>
+      </c>
+      <c r="C72" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F71" s="5">
-        <v>0</v>
-      </c>
-      <c r="G71">
-        <v>0</v>
-      </c>
-      <c r="H71" s="1">
-        <v>0</v>
-      </c>
-      <c r="I71">
-        <v>0</v>
-      </c>
-      <c r="J71" s="5">
-        <v>0</v>
-      </c>
-      <c r="K71">
-        <v>0</v>
-      </c>
-      <c r="L71" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="B72" s="4">
-        <v>0</v>
-      </c>
-      <c r="C72" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="D72" s="5">
         <v>0</v>
       </c>
       <c r="E72">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F72" s="5">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H72" s="1">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <f>(J72*(B72))</f>
+        <v>0</v>
+      </c>
+      <c r="J72" s="5">
+        <v>0</v>
+      </c>
+      <c r="L72" s="5"/>
+      <c r="M72" s="2">
+        <f>(N72*B72)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N72" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A73" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B73" s="4">
+        <v>0</v>
+      </c>
+      <c r="C73" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F72" s="5">
-        <v>0</v>
-      </c>
-      <c r="G72">
-        <v>0</v>
-      </c>
-      <c r="H72" s="1">
-        <v>0</v>
-      </c>
-      <c r="I72">
-        <v>0</v>
-      </c>
-      <c r="J72" s="5">
-        <v>0</v>
-      </c>
-      <c r="K72">
-        <v>0</v>
-      </c>
-      <c r="L72" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="B73" s="4">
-        <v>0</v>
-      </c>
-      <c r="C73" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="D73" s="5">
         <v>0</v>
       </c>
       <c r="E73">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F73" s="5">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H73" s="1">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <f>(J73*(B73))</f>
+        <v>0</v>
+      </c>
+      <c r="J73" s="5">
+        <v>0</v>
+      </c>
+      <c r="L73" s="5"/>
+      <c r="M73" s="2">
+        <f>(N73*B73)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N73" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A74" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B74" s="4">
+        <v>0</v>
+      </c>
+      <c r="C74" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F73" s="5">
-        <v>0</v>
-      </c>
-      <c r="G73">
-        <v>0</v>
-      </c>
-      <c r="H73" s="1">
-        <v>0</v>
-      </c>
-      <c r="I73">
-        <v>0</v>
-      </c>
-      <c r="J73" s="5">
-        <v>0</v>
-      </c>
-      <c r="K73">
-        <v>0</v>
-      </c>
-      <c r="L73" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="B74" s="4">
-        <v>0</v>
-      </c>
-      <c r="C74" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="D74" s="5">
         <v>0</v>
       </c>
       <c r="E74">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F74" s="5">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H74" s="1">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <f>(J74*(B74))</f>
+        <v>0</v>
+      </c>
+      <c r="J74" s="5">
+        <v>0</v>
+      </c>
+      <c r="L74" s="5"/>
+      <c r="M74" s="2">
+        <f>(N74*B74)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N74" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A75" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B75" s="4">
+        <v>0</v>
+      </c>
+      <c r="C75" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F74" s="5">
-        <v>0</v>
-      </c>
-      <c r="G74">
-        <v>0</v>
-      </c>
-      <c r="H74" s="1">
-        <v>0</v>
-      </c>
-      <c r="I74">
-        <v>0</v>
-      </c>
-      <c r="J74" s="5">
-        <v>0</v>
-      </c>
-      <c r="K74">
-        <v>0</v>
-      </c>
-      <c r="L74" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="B75" s="4">
-        <v>0</v>
-      </c>
-      <c r="C75" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="D75" s="5">
         <v>0</v>
       </c>
       <c r="E75">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F75" s="5">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H75" s="1">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <f>(J75*(B75))</f>
+        <v>0</v>
+      </c>
+      <c r="J75" s="5">
+        <v>0</v>
+      </c>
+      <c r="L75" s="5"/>
+      <c r="M75" s="2">
+        <f>(N75*B75)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N75" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B76" s="4">
+        <v>0</v>
+      </c>
+      <c r="C76" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F75" s="5">
-        <v>0</v>
-      </c>
-      <c r="G75">
-        <v>0</v>
-      </c>
-      <c r="H75" s="1">
-        <v>0</v>
-      </c>
-      <c r="I75">
-        <v>0</v>
-      </c>
-      <c r="J75" s="5">
-        <v>0</v>
-      </c>
-      <c r="K75">
-        <v>0</v>
-      </c>
-      <c r="L75" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="B76" s="4">
-        <v>0</v>
-      </c>
-      <c r="C76" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="D76" s="5">
         <v>0</v>
       </c>
       <c r="E76">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F76" s="5">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H76" s="1">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <f>(J76*(B76))</f>
+        <v>0</v>
+      </c>
+      <c r="J76" s="5">
+        <v>0</v>
+      </c>
+      <c r="L76" s="5"/>
+      <c r="M76" s="2">
+        <f>(N76*B76)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N76" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B77" s="4">
+        <v>0</v>
+      </c>
+      <c r="C77" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F76" s="5">
-        <v>0</v>
-      </c>
-      <c r="G76">
-        <v>0</v>
-      </c>
-      <c r="H76" s="1">
-        <v>0</v>
-      </c>
-      <c r="I76">
-        <v>0</v>
-      </c>
-      <c r="J76" s="5">
-        <v>0</v>
-      </c>
-      <c r="K76">
-        <v>0</v>
-      </c>
-      <c r="L76" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B77" s="4">
-        <v>0</v>
-      </c>
-      <c r="C77" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="D77" s="5">
         <v>0</v>
       </c>
       <c r="E77">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F77" s="5">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H77" s="1">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <f>(J77*(B77))</f>
+        <v>0</v>
+      </c>
+      <c r="J77" s="5">
+        <v>0</v>
+      </c>
+      <c r="L77" s="5"/>
+      <c r="M77" s="2">
+        <f>(N77*B77)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N77" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B78" s="4">
+        <v>0</v>
+      </c>
+      <c r="C78" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F77" s="5">
-        <v>0</v>
-      </c>
-      <c r="G77">
-        <v>0</v>
-      </c>
-      <c r="H77" s="1">
-        <v>0</v>
-      </c>
-      <c r="I77">
-        <v>0</v>
-      </c>
-      <c r="J77" s="5">
-        <v>0</v>
-      </c>
-      <c r="K77">
-        <v>0</v>
-      </c>
-      <c r="L77" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A78" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="B78" s="4">
-        <v>0</v>
-      </c>
-      <c r="C78" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="D78" s="5">
         <v>0</v>
       </c>
       <c r="E78">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F78" s="5">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H78" s="1">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <f>(J78*(B78))</f>
+        <v>0</v>
+      </c>
+      <c r="J78" s="5">
+        <v>0</v>
+      </c>
+      <c r="L78" s="5"/>
+      <c r="M78" s="2">
+        <f>(N78*B78)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N78" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B79" s="4">
+        <v>0</v>
+      </c>
+      <c r="C79" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F78" s="5">
-        <v>0</v>
-      </c>
-      <c r="G78">
-        <v>0</v>
-      </c>
-      <c r="H78" s="1">
-        <v>0</v>
-      </c>
-      <c r="I78">
-        <v>0</v>
-      </c>
-      <c r="J78" s="5">
-        <v>0</v>
-      </c>
-      <c r="K78">
-        <v>0</v>
-      </c>
-      <c r="L78" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="B79" s="4">
-        <v>0</v>
-      </c>
-      <c r="C79" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="D79" s="5">
         <v>0</v>
       </c>
       <c r="E79">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F79" s="5">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H79" s="1">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <f>(J79*(B79))</f>
+        <v>0</v>
+      </c>
+      <c r="J79" s="5">
+        <v>0</v>
+      </c>
+      <c r="L79" s="5"/>
+      <c r="M79" s="2">
+        <f>(N79*B79)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N79" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B80" s="4">
+        <v>0</v>
+      </c>
+      <c r="C80" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F79" s="5">
-        <v>0</v>
-      </c>
-      <c r="G79">
-        <v>0</v>
-      </c>
-      <c r="H79" s="1">
-        <v>0</v>
-      </c>
-      <c r="I79">
-        <v>0</v>
-      </c>
-      <c r="J79" s="5">
-        <v>0</v>
-      </c>
-      <c r="K79">
-        <v>0</v>
-      </c>
-      <c r="L79" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="B80" s="4">
-        <v>0</v>
-      </c>
-      <c r="C80" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="D80" s="5">
         <v>0</v>
       </c>
       <c r="E80">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F80" s="5">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H80" s="1">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <f>(J80*(B80))</f>
+        <v>0</v>
+      </c>
+      <c r="J80" s="5">
+        <v>0</v>
+      </c>
+      <c r="L80" s="5"/>
+      <c r="M80" s="2">
+        <f>(N80*B80)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N80" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A81" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B81" s="4">
+        <v>0</v>
+      </c>
+      <c r="C81" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F80" s="5">
-        <v>0</v>
-      </c>
-      <c r="G80">
-        <v>0</v>
-      </c>
-      <c r="H80" s="1">
-        <v>0</v>
-      </c>
-      <c r="I80">
-        <v>0</v>
-      </c>
-      <c r="J80" s="5">
-        <v>0</v>
-      </c>
-      <c r="K80">
-        <v>0</v>
-      </c>
-      <c r="L80" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A81" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="B81" s="4">
-        <v>0</v>
-      </c>
-      <c r="C81" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="D81" s="5">
         <v>0</v>
       </c>
       <c r="E81">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F81" s="5">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H81" s="1">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <f>(J81*(B81))</f>
+        <v>0</v>
+      </c>
+      <c r="J81" s="5">
+        <v>0</v>
+      </c>
+      <c r="L81" s="5"/>
+      <c r="M81" s="2">
+        <f>(N81*B81)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N81" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A82" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B82" s="4">
+        <v>0</v>
+      </c>
+      <c r="C82" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F81" s="5">
-        <v>0</v>
-      </c>
-      <c r="G81">
-        <v>0</v>
-      </c>
-      <c r="H81" s="1">
-        <v>0</v>
-      </c>
-      <c r="I81">
-        <v>0</v>
-      </c>
-      <c r="J81" s="5">
-        <v>0</v>
-      </c>
-      <c r="K81">
-        <v>0</v>
-      </c>
-      <c r="L81" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="B82" s="4">
-        <v>0</v>
-      </c>
-      <c r="C82" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="D82" s="5">
         <v>0</v>
       </c>
       <c r="E82">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F82" s="5">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H82" s="1">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <f>(J82*(B82))</f>
+        <v>0</v>
+      </c>
+      <c r="J82" s="5">
+        <v>0</v>
+      </c>
+      <c r="L82" s="5"/>
+      <c r="M82" s="2">
+        <f>(N82*B82)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N82" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A83" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B83" s="4">
+        <v>0</v>
+      </c>
+      <c r="C83" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F82" s="5">
-        <v>0</v>
-      </c>
-      <c r="G82">
-        <v>0</v>
-      </c>
-      <c r="H82" s="1">
-        <v>0</v>
-      </c>
-      <c r="I82">
-        <v>0</v>
-      </c>
-      <c r="J82" s="5">
-        <v>0</v>
-      </c>
-      <c r="K82">
-        <v>0</v>
-      </c>
-      <c r="L82" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A83" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="B83" s="4">
-        <v>0</v>
-      </c>
-      <c r="C83" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="D83" s="5">
         <v>0</v>
       </c>
       <c r="E83">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F83" s="5">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H83" s="1">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <f>(J83*(B83))</f>
+        <v>0</v>
+      </c>
+      <c r="J83" s="5">
+        <v>0</v>
+      </c>
+      <c r="L83" s="5"/>
+      <c r="M83" s="2">
+        <f>(N83*B83)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N83" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A84" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B84" s="4">
+        <v>0</v>
+      </c>
+      <c r="C84" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F83" s="5">
-        <v>0</v>
-      </c>
-      <c r="G83">
-        <v>0</v>
-      </c>
-      <c r="H83" s="1">
-        <v>0</v>
-      </c>
-      <c r="I83">
-        <v>0</v>
-      </c>
-      <c r="J83" s="5">
-        <v>0</v>
-      </c>
-      <c r="K83">
-        <v>0</v>
-      </c>
-      <c r="L83" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="B84" s="4">
-        <v>0</v>
-      </c>
-      <c r="C84" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="D84" s="5">
         <v>0</v>
       </c>
       <c r="E84">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F84" s="5">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H84" s="1">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <f>(J84*(B84))</f>
+        <v>0</v>
+      </c>
+      <c r="J84" s="5">
+        <v>0</v>
+      </c>
+      <c r="L84" s="5"/>
+      <c r="M84" s="2">
+        <f>(N84*B84)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N84" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A85" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B85" s="4">
+        <v>0</v>
+      </c>
+      <c r="C85" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F84" s="5">
-        <v>0</v>
-      </c>
-      <c r="G84">
-        <v>0</v>
-      </c>
-      <c r="H84" s="1">
-        <v>0</v>
-      </c>
-      <c r="I84">
-        <v>0</v>
-      </c>
-      <c r="J84" s="5">
-        <v>0</v>
-      </c>
-      <c r="K84">
-        <v>0</v>
-      </c>
-      <c r="L84" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A85" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B85" s="4">
-        <v>0</v>
-      </c>
-      <c r="C85" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="D85" s="5">
         <v>0</v>
       </c>
       <c r="E85">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F85" s="5">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H85" s="1">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <f>(J85*(B85))</f>
+        <v>0</v>
+      </c>
+      <c r="J85" s="5">
+        <v>0</v>
+      </c>
+      <c r="L85" s="5"/>
+      <c r="M85" s="2">
+        <f>(N85*B85)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N85" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A86" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B86" s="4">
+        <v>0</v>
+      </c>
+      <c r="C86" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F85" s="5">
-        <v>0</v>
-      </c>
-      <c r="G85">
-        <v>0</v>
-      </c>
-      <c r="H85" s="1">
-        <v>0</v>
-      </c>
-      <c r="I85">
-        <v>0</v>
-      </c>
-      <c r="J85" s="5">
-        <v>0</v>
-      </c>
-      <c r="K85">
-        <v>0</v>
-      </c>
-      <c r="L85" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B86" s="4">
-        <v>0</v>
-      </c>
-      <c r="C86" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="D86" s="5">
         <v>0</v>
       </c>
       <c r="E86">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F86" s="5">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H86" s="1">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <f>(J86*(B86))</f>
+        <v>0</v>
+      </c>
+      <c r="J86" s="5">
+        <v>0</v>
+      </c>
+      <c r="L86" s="5"/>
+      <c r="M86" s="2">
+        <f>(N86*B86)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N86" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A87" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B87" s="4">
+        <v>0</v>
+      </c>
+      <c r="C87" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F86" s="5">
-        <v>0</v>
-      </c>
-      <c r="G86">
-        <v>0</v>
-      </c>
-      <c r="H86" s="1">
-        <v>0</v>
-      </c>
-      <c r="I86">
-        <v>0</v>
-      </c>
-      <c r="J86" s="5">
-        <v>0</v>
-      </c>
-      <c r="K86">
-        <v>0</v>
-      </c>
-      <c r="L86" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A87" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="B87" s="4">
-        <v>0</v>
-      </c>
-      <c r="C87" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="D87" s="5">
         <v>0</v>
       </c>
       <c r="E87">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F87" s="5">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H87" s="1">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <f>(J87*(B87))</f>
+        <v>0</v>
+      </c>
+      <c r="J87" s="5">
+        <v>0</v>
+      </c>
+      <c r="L87" s="5"/>
+      <c r="M87" s="2">
+        <f>(N87*B87)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N87" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A88" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B88" s="4">
+        <v>0</v>
+      </c>
+      <c r="C88" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F87" s="5">
-        <v>0</v>
-      </c>
-      <c r="G87">
-        <v>0</v>
-      </c>
-      <c r="H87" s="1">
-        <v>0</v>
-      </c>
-      <c r="I87">
-        <v>0</v>
-      </c>
-      <c r="J87" s="5">
-        <v>0</v>
-      </c>
-      <c r="K87">
-        <v>0</v>
-      </c>
-      <c r="L87" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A88" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="B88" s="4">
-        <v>0</v>
-      </c>
-      <c r="C88" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="D88" s="5">
         <v>0</v>
       </c>
       <c r="E88">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F88" s="5">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H88" s="1">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <f>(J88*(B88))</f>
+        <v>0</v>
+      </c>
+      <c r="J88" s="5">
+        <v>0</v>
+      </c>
+      <c r="L88" s="5"/>
+      <c r="M88" s="2">
+        <f>(N88*B88)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N88" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A89" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B89" s="4">
+        <v>0</v>
+      </c>
+      <c r="C89" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F88" s="5">
-        <v>0</v>
-      </c>
-      <c r="G88">
-        <v>0</v>
-      </c>
-      <c r="H88" s="1">
-        <v>0</v>
-      </c>
-      <c r="I88">
-        <v>0</v>
-      </c>
-      <c r="J88" s="5">
-        <v>0</v>
-      </c>
-      <c r="K88">
-        <v>0</v>
-      </c>
-      <c r="L88" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="B89" s="4">
-        <v>0</v>
-      </c>
-      <c r="C89" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="D89" s="5">
         <v>0</v>
       </c>
       <c r="E89">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F89" s="5">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H89" s="1">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <f>(J89*(B89))</f>
+        <v>0</v>
+      </c>
+      <c r="J89" s="5">
+        <v>0</v>
+      </c>
+      <c r="L89" s="5"/>
+      <c r="M89" s="2">
+        <f>(N89*B89)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N89" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A90" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B90" s="4">
+        <v>0</v>
+      </c>
+      <c r="C90" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F89" s="5">
-        <v>0</v>
-      </c>
-      <c r="G89">
-        <v>0</v>
-      </c>
-      <c r="H89" s="1">
-        <v>0</v>
-      </c>
-      <c r="I89">
-        <v>0</v>
-      </c>
-      <c r="J89" s="5">
-        <v>0</v>
-      </c>
-      <c r="K89">
-        <v>0</v>
-      </c>
-      <c r="L89" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="B90" s="4">
-        <v>0</v>
-      </c>
-      <c r="C90" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="D90" s="5">
         <v>0</v>
       </c>
       <c r="E90">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F90" s="5">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H90" s="1">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <f>(J90*(B90))</f>
+        <v>0</v>
+      </c>
+      <c r="J90" s="5">
+        <v>0</v>
+      </c>
+      <c r="L90" s="5"/>
+      <c r="M90" s="2">
+        <f>(N90*B90)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N90" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A91" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B91" s="4">
+        <v>0</v>
+      </c>
+      <c r="C91" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F90" s="5">
-        <v>0</v>
-      </c>
-      <c r="G90">
-        <v>0</v>
-      </c>
-      <c r="H90" s="1">
-        <v>0</v>
-      </c>
-      <c r="I90">
-        <v>0</v>
-      </c>
-      <c r="J90" s="5">
-        <v>0</v>
-      </c>
-      <c r="K90">
-        <v>0</v>
-      </c>
-      <c r="L90" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="B91" s="4">
-        <v>0</v>
-      </c>
-      <c r="C91" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="D91" s="5">
         <v>0</v>
       </c>
       <c r="E91">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F91" s="5">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H91" s="1">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <f>(J91*(B91))</f>
+        <v>0</v>
+      </c>
+      <c r="J91" s="5">
+        <v>0</v>
+      </c>
+      <c r="L91" s="5"/>
+      <c r="M91" s="2">
+        <f>(N91*B91)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N91" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A92" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B92" s="4">
+        <v>0</v>
+      </c>
+      <c r="C92" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F91" s="5">
-        <v>0</v>
-      </c>
-      <c r="G91">
-        <v>0</v>
-      </c>
-      <c r="H91" s="1">
-        <v>0</v>
-      </c>
-      <c r="I91">
-        <v>0</v>
-      </c>
-      <c r="J91" s="5">
-        <v>0</v>
-      </c>
-      <c r="K91">
-        <v>0</v>
-      </c>
-      <c r="L91" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="B92" s="4">
-        <v>0</v>
-      </c>
-      <c r="C92" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="D92" s="5">
         <v>0</v>
       </c>
       <c r="E92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F92" s="5">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H92" s="1">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <f>(J92*(B92))</f>
+        <v>0</v>
+      </c>
+      <c r="J92" s="5">
+        <v>0</v>
+      </c>
+      <c r="L92" s="5"/>
+      <c r="M92" s="2">
+        <f>(N92*B92)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N92" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A93" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B93" s="4">
+        <v>0</v>
+      </c>
+      <c r="C93" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F92" s="5">
-        <v>0</v>
-      </c>
-      <c r="G92">
-        <v>0</v>
-      </c>
-      <c r="H92" s="1">
-        <v>0</v>
-      </c>
-      <c r="I92">
-        <v>0</v>
-      </c>
-      <c r="J92" s="5">
-        <v>0</v>
-      </c>
-      <c r="K92">
-        <v>0</v>
-      </c>
-      <c r="L92" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="B93" s="4">
-        <v>0</v>
-      </c>
-      <c r="C93" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="D93" s="5">
         <v>0</v>
       </c>
       <c r="E93">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F93" s="5">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H93" s="1">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <f>(J93*(B93))</f>
+        <v>0</v>
+      </c>
+      <c r="J93" s="5">
+        <v>0</v>
+      </c>
+      <c r="L93" s="5"/>
+      <c r="M93" s="2">
+        <f>(N93*B93)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N93" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A94" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B94" s="4">
+        <v>0</v>
+      </c>
+      <c r="C94" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F93" s="5">
-        <v>0</v>
-      </c>
-      <c r="G93">
-        <v>0</v>
-      </c>
-      <c r="H93" s="1">
-        <v>0</v>
-      </c>
-      <c r="I93">
-        <v>0</v>
-      </c>
-      <c r="J93" s="5">
-        <v>0</v>
-      </c>
-      <c r="K93">
-        <v>0</v>
-      </c>
-      <c r="L93" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A94" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B94" s="4">
-        <v>0</v>
-      </c>
-      <c r="C94" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="D94" s="5">
         <v>0</v>
       </c>
       <c r="E94">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F94" s="5">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H94" s="1">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <f>(J94*(B94))</f>
+        <v>0</v>
+      </c>
+      <c r="J94" s="5">
+        <v>0</v>
+      </c>
+      <c r="L94" s="5"/>
+      <c r="M94" s="2">
+        <f>(N94*B94)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N94" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A95" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B95" s="4">
+        <v>0</v>
+      </c>
+      <c r="C95" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F94" s="5">
-        <v>0</v>
-      </c>
-      <c r="G94">
-        <v>0</v>
-      </c>
-      <c r="H94" s="1">
-        <v>0</v>
-      </c>
-      <c r="I94">
-        <v>0</v>
-      </c>
-      <c r="J94" s="5">
-        <v>0</v>
-      </c>
-      <c r="K94">
-        <v>0</v>
-      </c>
-      <c r="L94" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A95" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="B95" s="4">
-        <v>0</v>
-      </c>
-      <c r="C95" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="D95" s="5">
         <v>0</v>
       </c>
       <c r="E95">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F95" s="5">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H95" s="1">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <f>(J95*(B95))</f>
+        <v>0</v>
+      </c>
+      <c r="J95" s="5">
+        <v>0</v>
+      </c>
+      <c r="L95" s="5"/>
+      <c r="M95" s="2">
+        <f>(N95*B95)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N95" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A96" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B96" s="4">
+        <v>0</v>
+      </c>
+      <c r="C96" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F95" s="5">
-        <v>0</v>
-      </c>
-      <c r="G95">
-        <v>0</v>
-      </c>
-      <c r="H95" s="1">
-        <v>0</v>
-      </c>
-      <c r="I95">
-        <v>0</v>
-      </c>
-      <c r="J95" s="5">
-        <v>0</v>
-      </c>
-      <c r="K95">
-        <v>0</v>
-      </c>
-      <c r="L95" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A96" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="B96" s="4">
-        <v>0</v>
-      </c>
-      <c r="C96" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="D96" s="5">
         <v>0</v>
       </c>
       <c r="E96">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F96" s="5">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H96" s="1">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <f>(J96*(B96))</f>
+        <v>0</v>
+      </c>
+      <c r="J96" s="5">
+        <v>0</v>
+      </c>
+      <c r="L96" s="5"/>
+      <c r="M96" s="2">
+        <f>(N96*B96)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N96" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A97" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B97" s="4">
+        <v>0</v>
+      </c>
+      <c r="C97" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F96" s="5">
-        <v>0</v>
-      </c>
-      <c r="G96">
-        <v>0</v>
-      </c>
-      <c r="H96" s="1">
-        <v>0</v>
-      </c>
-      <c r="I96">
-        <v>0</v>
-      </c>
-      <c r="J96" s="5">
-        <v>0</v>
-      </c>
-      <c r="K96">
-        <v>0</v>
-      </c>
-      <c r="L96" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A97" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="B97" s="4">
-        <v>0</v>
-      </c>
-      <c r="C97" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="D97" s="5">
         <v>0</v>
       </c>
       <c r="E97">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F97" s="5">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H97" s="1">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <f>(J97*(B97))</f>
+        <v>0</v>
+      </c>
+      <c r="J97" s="5">
+        <v>0</v>
+      </c>
+      <c r="L97" s="5"/>
+      <c r="M97" s="2">
+        <f>(N97*B97)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N97" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A98" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B98" s="4">
+        <v>0</v>
+      </c>
+      <c r="C98" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F97" s="5">
-        <v>0</v>
-      </c>
-      <c r="G97">
-        <v>0</v>
-      </c>
-      <c r="H97" s="1">
-        <v>0</v>
-      </c>
-      <c r="I97">
-        <v>0</v>
-      </c>
-      <c r="J97" s="5">
-        <v>0</v>
-      </c>
-      <c r="K97">
-        <v>0</v>
-      </c>
-      <c r="L97" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A98" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="B98" s="4">
-        <v>0</v>
-      </c>
-      <c r="C98" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="D98" s="5">
         <v>0</v>
       </c>
       <c r="E98">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F98" s="5">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H98" s="1">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <f>(J98*(B98))</f>
+        <v>0</v>
+      </c>
+      <c r="J98" s="5">
+        <v>0</v>
+      </c>
+      <c r="L98" s="5"/>
+      <c r="M98" s="2">
+        <f>(N98*B98)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N98" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A99" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B99" s="4">
+        <v>0</v>
+      </c>
+      <c r="C99" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F98" s="5">
-        <v>0</v>
-      </c>
-      <c r="G98">
-        <v>0</v>
-      </c>
-      <c r="H98" s="1">
-        <v>0</v>
-      </c>
-      <c r="I98">
-        <v>0</v>
-      </c>
-      <c r="J98" s="5">
-        <v>0</v>
-      </c>
-      <c r="K98">
-        <v>0</v>
-      </c>
-      <c r="L98" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A99" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="B99" s="4">
-        <v>0</v>
-      </c>
-      <c r="C99" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="D99" s="5">
         <v>0</v>
       </c>
       <c r="E99">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F99" s="5">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H99" s="1">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <f>(J99*(B99))</f>
+        <v>0</v>
+      </c>
+      <c r="J99" s="5">
+        <v>0</v>
+      </c>
+      <c r="L99" s="5"/>
+      <c r="M99" s="2">
+        <f>(N99*B99)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N99" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A100" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B100" s="4">
+        <v>0</v>
+      </c>
+      <c r="C100" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F99" s="5">
-        <v>0</v>
-      </c>
-      <c r="G99">
-        <v>0</v>
-      </c>
-      <c r="H99" s="1">
-        <v>0</v>
-      </c>
-      <c r="I99">
-        <v>0</v>
-      </c>
-      <c r="J99" s="5">
-        <v>0</v>
-      </c>
-      <c r="K99">
-        <v>0</v>
-      </c>
-      <c r="L99" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A100" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="B100" s="4">
-        <v>0</v>
-      </c>
-      <c r="C100" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="D100" s="5">
         <v>0</v>
       </c>
       <c r="E100">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F100" s="5">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H100" s="1">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <f>(J100*(B100))</f>
+        <v>0</v>
+      </c>
+      <c r="J100" s="5">
+        <v>0</v>
+      </c>
+      <c r="L100" s="5"/>
+      <c r="M100" s="2">
+        <f>(N100*B100)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N100" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A101" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B101" s="4">
+        <v>0</v>
+      </c>
+      <c r="C101" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F100" s="5">
-        <v>0</v>
-      </c>
-      <c r="G100">
-        <v>0</v>
-      </c>
-      <c r="H100" s="1">
-        <v>0</v>
-      </c>
-      <c r="I100">
-        <v>0</v>
-      </c>
-      <c r="J100" s="5">
-        <v>0</v>
-      </c>
-      <c r="K100">
-        <v>0</v>
-      </c>
-      <c r="L100" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A101" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="B101" s="4">
-        <v>0</v>
-      </c>
-      <c r="C101" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="D101" s="5">
         <v>0</v>
       </c>
       <c r="E101">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F101" s="5">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H101" s="1">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <f>(J101*(B101))</f>
+        <v>0</v>
+      </c>
+      <c r="J101" s="5">
+        <v>0</v>
+      </c>
+      <c r="L101" s="5"/>
+      <c r="M101" s="2">
+        <f>(N101*B101)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N101" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A102" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B102" s="4">
+        <v>0</v>
+      </c>
+      <c r="C102" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F101" s="5">
-        <v>0</v>
-      </c>
-      <c r="G101">
-        <v>0</v>
-      </c>
-      <c r="H101" s="1">
-        <v>0</v>
-      </c>
-      <c r="I101">
-        <v>0</v>
-      </c>
-      <c r="J101" s="5">
-        <v>0</v>
-      </c>
-      <c r="K101">
-        <v>0</v>
-      </c>
-      <c r="L101" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A102" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="B102" s="4">
-        <v>0</v>
-      </c>
-      <c r="C102" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="D102" s="5">
         <v>0</v>
       </c>
       <c r="E102">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F102" s="5">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H102" s="1">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <f>(J102*(B102))</f>
+        <v>0</v>
+      </c>
+      <c r="J102" s="5">
+        <v>0</v>
+      </c>
+      <c r="L102" s="5"/>
+      <c r="M102" s="2">
+        <f>(N102*B102)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N102" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A103" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B103" s="4">
+        <v>0</v>
+      </c>
+      <c r="C103" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F102" s="5">
-        <v>0</v>
-      </c>
-      <c r="G102">
-        <v>0</v>
-      </c>
-      <c r="H102" s="1">
-        <v>0</v>
-      </c>
-      <c r="I102">
-        <v>0</v>
-      </c>
-      <c r="J102" s="5">
-        <v>0</v>
-      </c>
-      <c r="K102">
-        <v>0</v>
-      </c>
-      <c r="L102" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A103" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="B103" s="4">
-        <v>0</v>
-      </c>
-      <c r="C103" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="D103" s="5">
         <v>0</v>
       </c>
       <c r="E103">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F103" s="5">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H103" s="1">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <f>(J103*(B103))</f>
+        <v>0</v>
+      </c>
+      <c r="J103" s="5">
+        <v>0</v>
+      </c>
+      <c r="L103" s="5"/>
+      <c r="M103" s="2">
+        <f>(N103*B103)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N103" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A104" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B104" s="4">
+        <v>0</v>
+      </c>
+      <c r="C104" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F103" s="5">
-        <v>0</v>
-      </c>
-      <c r="G103">
-        <v>0</v>
-      </c>
-      <c r="H103" s="1">
-        <v>0</v>
-      </c>
-      <c r="I103">
-        <v>0</v>
-      </c>
-      <c r="J103" s="5">
-        <v>0</v>
-      </c>
-      <c r="K103">
-        <v>0</v>
-      </c>
-      <c r="L103" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A104" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="B104" s="4">
-        <v>0</v>
-      </c>
-      <c r="C104" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="D104" s="5">
         <v>0</v>
       </c>
       <c r="E104">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F104" s="5">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H104" s="1">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <f>(J104*(B104))</f>
+        <v>0</v>
+      </c>
+      <c r="J104" s="5">
+        <v>0</v>
+      </c>
+      <c r="L104" s="5"/>
+      <c r="M104" s="2">
+        <f>(N104*B104)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N104" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A105" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B105" s="4">
+        <v>0</v>
+      </c>
+      <c r="C105" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F104" s="5">
-        <v>0</v>
-      </c>
-      <c r="G104">
-        <v>0</v>
-      </c>
-      <c r="H104" s="1">
-        <v>0</v>
-      </c>
-      <c r="I104">
-        <v>0</v>
-      </c>
-      <c r="J104" s="5">
-        <v>0</v>
-      </c>
-      <c r="K104">
-        <v>0</v>
-      </c>
-      <c r="L104" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A105" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="B105" s="4">
-        <v>0</v>
-      </c>
-      <c r="C105" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="D105" s="5">
         <v>0</v>
       </c>
       <c r="E105">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F105" s="5">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H105" s="1">
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <f>(J105*(B105))</f>
+        <v>0</v>
+      </c>
+      <c r="J105" s="5">
+        <v>0</v>
+      </c>
+      <c r="L105" s="5"/>
+      <c r="M105" s="2">
+        <f>(N105*B105)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N105" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A106" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B106" s="4">
+        <v>0</v>
+      </c>
+      <c r="C106" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F105" s="5">
-        <v>0</v>
-      </c>
-      <c r="G105">
-        <v>0</v>
-      </c>
-      <c r="H105" s="1">
-        <v>0</v>
-      </c>
-      <c r="I105">
-        <v>0</v>
-      </c>
-      <c r="J105" s="5">
-        <v>0</v>
-      </c>
-      <c r="K105">
-        <v>0</v>
-      </c>
-      <c r="L105" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A106" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="B106" s="4">
-        <v>0</v>
-      </c>
-      <c r="C106" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="D106" s="5">
         <v>0</v>
       </c>
       <c r="E106">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F106" s="5">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H106" s="1">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <f>(J106*(B106))</f>
+        <v>0</v>
+      </c>
+      <c r="J106" s="5">
+        <v>0</v>
+      </c>
+      <c r="L106" s="5"/>
+      <c r="M106" s="2">
+        <f>(N106*B106)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N106" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A107" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B107" s="4">
+        <v>0</v>
+      </c>
+      <c r="C107" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F106" s="5">
-        <v>0</v>
-      </c>
-      <c r="G106">
-        <v>0</v>
-      </c>
-      <c r="H106" s="1">
-        <v>0</v>
-      </c>
-      <c r="I106">
-        <v>0</v>
-      </c>
-      <c r="J106" s="5">
-        <v>0</v>
-      </c>
-      <c r="K106">
-        <v>0</v>
-      </c>
-      <c r="L106" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A107" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="B107" s="4">
-        <v>0</v>
-      </c>
-      <c r="C107" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="D107" s="5">
         <v>0</v>
       </c>
       <c r="E107">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F107" s="5">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H107" s="1">
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <f>(J107*(B107))</f>
+        <v>0</v>
+      </c>
+      <c r="J107" s="5">
+        <v>0</v>
+      </c>
+      <c r="L107" s="5"/>
+      <c r="M107" s="2">
+        <f>(N107*B107)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N107" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A108" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B108" s="4">
+        <v>0</v>
+      </c>
+      <c r="C108" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F107" s="5">
-        <v>0</v>
-      </c>
-      <c r="G107">
-        <v>0</v>
-      </c>
-      <c r="H107" s="1">
-        <v>0</v>
-      </c>
-      <c r="I107">
-        <v>0</v>
-      </c>
-      <c r="J107" s="5">
-        <v>0</v>
-      </c>
-      <c r="K107">
-        <v>0</v>
-      </c>
-      <c r="L107" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A108" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="B108" s="4">
-        <v>0</v>
-      </c>
-      <c r="C108" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="D108" s="5">
         <v>0</v>
       </c>
       <c r="E108">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F108" s="5">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H108" s="1">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <f>(J108*(B108))</f>
+        <v>0</v>
+      </c>
+      <c r="J108" s="5">
+        <v>0</v>
+      </c>
+      <c r="L108" s="5"/>
+      <c r="M108" s="2">
+        <f>(N108*B108)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N108" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A109" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B109" s="4">
+        <v>0</v>
+      </c>
+      <c r="C109" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F108" s="5">
-        <v>0</v>
-      </c>
-      <c r="G108">
-        <v>0</v>
-      </c>
-      <c r="H108" s="1">
-        <v>0</v>
-      </c>
-      <c r="I108">
-        <v>0</v>
-      </c>
-      <c r="J108" s="5">
-        <v>0</v>
-      </c>
-      <c r="K108">
-        <v>0</v>
-      </c>
-      <c r="L108" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A109" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="B109" s="4">
-        <v>0</v>
-      </c>
-      <c r="C109" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="D109" s="5">
         <v>0</v>
       </c>
       <c r="E109">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F109" s="5">
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H109" s="1">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <f>(J109*(B109))</f>
+        <v>0</v>
+      </c>
+      <c r="J109" s="5">
+        <v>0</v>
+      </c>
+      <c r="L109" s="5"/>
+      <c r="M109" s="2">
+        <f>(N109*B109)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N109" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A110" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B110" s="4">
+        <v>0</v>
+      </c>
+      <c r="C110" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F109" s="5">
-        <v>0</v>
-      </c>
-      <c r="G109">
-        <v>0</v>
-      </c>
-      <c r="H109" s="1">
-        <v>0</v>
-      </c>
-      <c r="I109">
-        <v>0</v>
-      </c>
-      <c r="J109" s="5">
-        <v>0</v>
-      </c>
-      <c r="K109">
-        <v>0</v>
-      </c>
-      <c r="L109" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A110" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="B110" s="4">
-        <v>0</v>
-      </c>
-      <c r="C110" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="D110" s="5">
         <v>0</v>
       </c>
       <c r="E110">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F110" s="5">
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H110" s="1">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <f>(J110*(B110))</f>
+        <v>0</v>
+      </c>
+      <c r="J110" s="5">
+        <v>0</v>
+      </c>
+      <c r="L110" s="5"/>
+      <c r="M110" s="2">
+        <f>(N110*B110)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N110" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A111" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B111" s="4">
+        <v>0</v>
+      </c>
+      <c r="C111" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F110" s="5">
-        <v>0</v>
-      </c>
-      <c r="G110">
-        <v>0</v>
-      </c>
-      <c r="H110" s="1">
-        <v>0</v>
-      </c>
-      <c r="I110">
-        <v>0</v>
-      </c>
-      <c r="J110" s="5">
-        <v>0</v>
-      </c>
-      <c r="K110">
-        <v>0</v>
-      </c>
-      <c r="L110" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A111" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="B111" s="4">
-        <v>0</v>
-      </c>
-      <c r="C111" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="D111" s="5">
         <v>0</v>
       </c>
       <c r="E111">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F111" s="5">
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H111" s="1">
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <f>(J111*(B111))</f>
+        <v>0</v>
+      </c>
+      <c r="J111" s="5">
+        <v>0</v>
+      </c>
+      <c r="L111" s="5"/>
+      <c r="M111" s="2">
+        <f>(N111*B111)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N111" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A112" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B112" s="4">
+        <v>0</v>
+      </c>
+      <c r="C112" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F111" s="5">
-        <v>0</v>
-      </c>
-      <c r="G111">
-        <v>0</v>
-      </c>
-      <c r="H111" s="1">
-        <v>0</v>
-      </c>
-      <c r="I111">
-        <v>0</v>
-      </c>
-      <c r="J111" s="5">
-        <v>0</v>
-      </c>
-      <c r="K111">
-        <v>0</v>
-      </c>
-      <c r="L111" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A112" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="B112" s="4">
-        <v>0</v>
-      </c>
-      <c r="C112" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="D112" s="5">
         <v>0</v>
       </c>
       <c r="E112">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F112" s="5">
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H112" s="1">
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <f>(J112*(B112))</f>
+        <v>0</v>
+      </c>
+      <c r="J112" s="5">
+        <v>0</v>
+      </c>
+      <c r="L112" s="5"/>
+      <c r="M112" s="2">
+        <f>(N112*B112)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N112" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A113" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B113" s="4">
+        <v>0</v>
+      </c>
+      <c r="C113" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F112" s="5">
-        <v>0</v>
-      </c>
-      <c r="G112">
-        <v>0</v>
-      </c>
-      <c r="H112" s="1">
-        <v>0</v>
-      </c>
-      <c r="I112">
-        <v>0</v>
-      </c>
-      <c r="J112" s="5">
-        <v>0</v>
-      </c>
-      <c r="K112">
-        <v>0</v>
-      </c>
-      <c r="L112" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A113" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="B113" s="4">
-        <v>0</v>
-      </c>
-      <c r="C113" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="D113" s="5">
         <v>0</v>
       </c>
       <c r="E113">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F113" s="5">
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H113" s="1">
+        <v>0</v>
+      </c>
+      <c r="I113">
+        <f>(J113*(B113))</f>
+        <v>0</v>
+      </c>
+      <c r="J113" s="5">
+        <v>0</v>
+      </c>
+      <c r="L113" s="5"/>
+      <c r="M113" s="2">
+        <f>(N113*B113)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N113" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A114" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B114" s="4">
+        <v>0</v>
+      </c>
+      <c r="C114" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F113" s="5">
-        <v>0</v>
-      </c>
-      <c r="G113">
-        <v>0</v>
-      </c>
-      <c r="H113" s="1">
-        <v>0</v>
-      </c>
-      <c r="I113">
-        <v>0</v>
-      </c>
-      <c r="J113" s="5">
-        <v>0</v>
-      </c>
-      <c r="K113">
-        <v>0</v>
-      </c>
-      <c r="L113" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A114" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="B114" s="4">
-        <v>0</v>
-      </c>
-      <c r="C114" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="D114" s="5">
         <v>0</v>
       </c>
       <c r="E114">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F114" s="5">
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H114" s="1">
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <f>(J114*(B114))</f>
+        <v>0</v>
+      </c>
+      <c r="J114" s="5">
+        <v>0</v>
+      </c>
+      <c r="L114" s="5"/>
+      <c r="M114" s="2">
+        <f>(N114*B114)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N114" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A115" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B115" s="4">
+        <v>0</v>
+      </c>
+      <c r="C115" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F114" s="5">
-        <v>0</v>
-      </c>
-      <c r="G114">
-        <v>0</v>
-      </c>
-      <c r="H114" s="1">
-        <v>0</v>
-      </c>
-      <c r="I114">
-        <v>0</v>
-      </c>
-      <c r="J114" s="5">
-        <v>0</v>
-      </c>
-      <c r="K114">
-        <v>0</v>
-      </c>
-      <c r="L114" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A115" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="B115" s="4">
-        <v>0</v>
-      </c>
-      <c r="C115" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="D115" s="5">
         <v>0</v>
       </c>
       <c r="E115">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F115" s="5">
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H115" s="1">
+        <v>0</v>
+      </c>
+      <c r="I115">
+        <f>(J115*(B115))</f>
+        <v>0</v>
+      </c>
+      <c r="J115" s="5">
+        <v>0</v>
+      </c>
+      <c r="L115" s="5"/>
+      <c r="M115" s="2">
+        <f>(N115*B115)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N115" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A116" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B116" s="4">
+        <v>0</v>
+      </c>
+      <c r="C116" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F115" s="5">
-        <v>0</v>
-      </c>
-      <c r="G115">
-        <v>0</v>
-      </c>
-      <c r="H115" s="1">
-        <v>0</v>
-      </c>
-      <c r="I115">
-        <v>0</v>
-      </c>
-      <c r="J115" s="5">
-        <v>0</v>
-      </c>
-      <c r="K115">
-        <v>0</v>
-      </c>
-      <c r="L115" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A116" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="B116" s="4">
-        <v>0</v>
-      </c>
-      <c r="C116" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="D116" s="5">
         <v>0</v>
       </c>
       <c r="E116">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F116" s="5">
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H116" s="1">
+        <v>0</v>
+      </c>
+      <c r="I116">
+        <f>(J116*(B116))</f>
+        <v>0</v>
+      </c>
+      <c r="J116" s="5">
+        <v>0</v>
+      </c>
+      <c r="L116" s="5"/>
+      <c r="M116" s="2">
+        <f>(N116*B116)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N116" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A117" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B117" s="4">
+        <v>0</v>
+      </c>
+      <c r="C117" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F116" s="5">
-        <v>0</v>
-      </c>
-      <c r="G116">
-        <v>0</v>
-      </c>
-      <c r="H116" s="1">
-        <v>0</v>
-      </c>
-      <c r="I116">
-        <v>0</v>
-      </c>
-      <c r="J116" s="5">
-        <v>0</v>
-      </c>
-      <c r="K116">
-        <v>0</v>
-      </c>
-      <c r="L116" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A117" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="B117" s="4">
-        <v>0</v>
-      </c>
-      <c r="C117" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="D117" s="5">
         <v>0</v>
       </c>
       <c r="E117">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F117" s="5">
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H117" s="1">
+        <v>0</v>
+      </c>
+      <c r="I117">
+        <f>(J117*(B117))</f>
+        <v>0</v>
+      </c>
+      <c r="J117" s="5">
+        <v>0</v>
+      </c>
+      <c r="L117" s="5"/>
+      <c r="M117" s="2">
+        <f>(N117*B117)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N117" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A118" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B118" s="4">
+        <v>0</v>
+      </c>
+      <c r="C118" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F117" s="5">
-        <v>0</v>
-      </c>
-      <c r="G117">
-        <v>0</v>
-      </c>
-      <c r="H117" s="1">
-        <v>0</v>
-      </c>
-      <c r="I117">
-        <v>0</v>
-      </c>
-      <c r="J117" s="5">
-        <v>0</v>
-      </c>
-      <c r="K117">
-        <v>0</v>
-      </c>
-      <c r="L117" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A118" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="B118" s="4">
-        <v>0</v>
-      </c>
-      <c r="C118" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="D118" s="5">
         <v>0</v>
       </c>
       <c r="E118">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F118" s="5">
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H118" s="1">
+        <v>0</v>
+      </c>
+      <c r="I118">
+        <f>(J118*(B118))</f>
+        <v>0</v>
+      </c>
+      <c r="J118" s="5">
+        <v>0</v>
+      </c>
+      <c r="L118" s="5"/>
+      <c r="M118" s="2">
+        <f>(N118*B118)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N118" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A119" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B119" s="4">
+        <v>0</v>
+      </c>
+      <c r="C119" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F118" s="5">
-        <v>0</v>
-      </c>
-      <c r="G118">
-        <v>0</v>
-      </c>
-      <c r="H118" s="1">
-        <v>0</v>
-      </c>
-      <c r="I118">
-        <v>0</v>
-      </c>
-      <c r="J118" s="5">
-        <v>0</v>
-      </c>
-      <c r="K118">
-        <v>0</v>
-      </c>
-      <c r="L118" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A119" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="B119" s="4">
-        <v>0</v>
-      </c>
-      <c r="C119" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="D119" s="5">
         <v>0</v>
       </c>
       <c r="E119">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F119" s="5">
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H119" s="1">
+        <v>0</v>
+      </c>
+      <c r="I119">
+        <f>(J119*(B119))</f>
+        <v>0</v>
+      </c>
+      <c r="J119" s="5">
+        <v>0</v>
+      </c>
+      <c r="L119" s="5"/>
+      <c r="M119" s="2">
+        <f>(N119*B119)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N119" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A120" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B120" s="4">
+        <v>0</v>
+      </c>
+      <c r="C120" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F119" s="5">
-        <v>0</v>
-      </c>
-      <c r="G119">
-        <v>0</v>
-      </c>
-      <c r="H119" s="1">
-        <v>0</v>
-      </c>
-      <c r="I119">
-        <v>0</v>
-      </c>
-      <c r="J119" s="5">
-        <v>0</v>
-      </c>
-      <c r="K119">
-        <v>0</v>
-      </c>
-      <c r="L119" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A120" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="B120" s="4">
-        <v>0</v>
-      </c>
-      <c r="C120" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="D120" s="5">
         <v>0</v>
       </c>
       <c r="E120">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F120" s="5">
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H120" s="1">
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <f>(J120*(B120))</f>
+        <v>0</v>
+      </c>
+      <c r="J120" s="5">
+        <v>0</v>
+      </c>
+      <c r="L120" s="5"/>
+      <c r="M120" s="2">
+        <f>(N120*B120)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N120" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A121" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B121" s="4">
+        <v>0</v>
+      </c>
+      <c r="C121" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F120" s="5">
-        <v>0</v>
-      </c>
-      <c r="G120">
-        <v>0</v>
-      </c>
-      <c r="H120" s="1">
-        <v>0</v>
-      </c>
-      <c r="I120">
-        <v>0</v>
-      </c>
-      <c r="J120" s="5">
-        <v>0</v>
-      </c>
-      <c r="K120">
-        <v>0</v>
-      </c>
-      <c r="L120" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A121" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="B121" s="4">
-        <v>0</v>
-      </c>
-      <c r="C121" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="D121" s="5">
         <v>0</v>
       </c>
       <c r="E121">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F121" s="5">
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H121" s="1">
+        <v>0</v>
+      </c>
+      <c r="I121">
+        <f>(J121*(B121))</f>
+        <v>0</v>
+      </c>
+      <c r="J121" s="5">
+        <v>0</v>
+      </c>
+      <c r="L121" s="5"/>
+      <c r="M121" s="2">
+        <f>(N121*B121)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N121" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A122" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B122" s="4">
+        <v>0</v>
+      </c>
+      <c r="C122" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F121" s="5">
-        <v>0</v>
-      </c>
-      <c r="G121">
-        <v>0</v>
-      </c>
-      <c r="H121" s="1">
-        <v>0</v>
-      </c>
-      <c r="I121">
-        <v>0</v>
-      </c>
-      <c r="J121" s="5">
-        <v>0</v>
-      </c>
-      <c r="K121">
-        <v>0</v>
-      </c>
-      <c r="L121" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A122" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="B122" s="4">
-        <v>0</v>
-      </c>
-      <c r="C122" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="D122" s="5">
         <v>0</v>
       </c>
       <c r="E122">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F122" s="5">
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H122" s="1">
+        <v>0</v>
+      </c>
+      <c r="I122">
+        <f>(J122*(B122))</f>
+        <v>0</v>
+      </c>
+      <c r="J122" s="5">
+        <v>0</v>
+      </c>
+      <c r="L122" s="5"/>
+      <c r="M122" s="2">
+        <f>(N122*B122)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N122" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A123" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B123" s="4">
+        <v>0</v>
+      </c>
+      <c r="C123" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F122" s="5">
-        <v>0</v>
-      </c>
-      <c r="G122">
-        <v>0</v>
-      </c>
-      <c r="H122" s="1">
-        <v>0</v>
-      </c>
-      <c r="I122">
-        <v>0</v>
-      </c>
-      <c r="J122" s="5">
-        <v>0</v>
-      </c>
-      <c r="K122">
-        <v>0</v>
-      </c>
-      <c r="L122" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A123" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B123" s="4">
-        <v>0</v>
-      </c>
-      <c r="C123" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="D123" s="5">
         <v>0</v>
       </c>
       <c r="E123">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F123" s="5">
+        <v>0</v>
+      </c>
+      <c r="G123">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H123" s="1">
+        <v>0</v>
+      </c>
+      <c r="I123">
+        <f>(J123*(B123))</f>
+        <v>0</v>
+      </c>
+      <c r="J123" s="5">
+        <v>0</v>
+      </c>
+      <c r="L123" s="5"/>
+      <c r="M123" s="2">
+        <f>(N123*B123)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N123" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A124" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B124" s="4">
+        <v>0</v>
+      </c>
+      <c r="C124" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F123" s="5">
-        <v>0</v>
-      </c>
-      <c r="G123">
-        <v>0</v>
-      </c>
-      <c r="H123" s="1">
-        <v>0</v>
-      </c>
-      <c r="I123">
-        <v>0</v>
-      </c>
-      <c r="J123" s="5">
-        <v>0</v>
-      </c>
-      <c r="K123">
-        <v>0</v>
-      </c>
-      <c r="L123" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A124" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="B124" s="4">
-        <v>0</v>
-      </c>
-      <c r="C124" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="D124" s="5">
         <v>0</v>
       </c>
       <c r="E124">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F124" s="5">
+        <v>0</v>
+      </c>
+      <c r="G124">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H124" s="1">
+        <v>0</v>
+      </c>
+      <c r="I124">
+        <f>(J124*(B124))</f>
+        <v>0</v>
+      </c>
+      <c r="J124" s="5">
+        <v>0</v>
+      </c>
+      <c r="L124" s="5"/>
+      <c r="M124" s="2">
+        <f>(N124*B124)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N124" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A125" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B125" s="4">
+        <v>0</v>
+      </c>
+      <c r="C125" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F124" s="5">
-        <v>0</v>
-      </c>
-      <c r="G124">
-        <v>0</v>
-      </c>
-      <c r="H124" s="1">
-        <v>0</v>
-      </c>
-      <c r="I124">
-        <v>0</v>
-      </c>
-      <c r="J124" s="5">
-        <v>0</v>
-      </c>
-      <c r="K124">
-        <v>0</v>
-      </c>
-      <c r="L124" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A125" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="B125" s="4">
-        <v>0</v>
-      </c>
-      <c r="C125" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="D125" s="5">
         <v>0</v>
       </c>
       <c r="E125">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F125" s="5">
+        <v>0</v>
+      </c>
+      <c r="G125">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H125" s="1">
+        <v>0</v>
+      </c>
+      <c r="I125">
+        <f>(J125*(B125))</f>
+        <v>0</v>
+      </c>
+      <c r="J125" s="5">
+        <v>0</v>
+      </c>
+      <c r="L125" s="5"/>
+      <c r="M125" s="2">
+        <f>(N125*B125)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N125" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A126" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B126" s="4">
+        <v>0</v>
+      </c>
+      <c r="C126" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F125" s="5">
-        <v>0</v>
-      </c>
-      <c r="G125">
-        <v>0</v>
-      </c>
-      <c r="H125" s="1">
-        <v>0</v>
-      </c>
-      <c r="I125">
-        <v>0</v>
-      </c>
-      <c r="J125" s="5">
-        <v>0</v>
-      </c>
-      <c r="K125">
-        <v>0</v>
-      </c>
-      <c r="L125" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A126" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="B126" s="4">
-        <v>0</v>
-      </c>
-      <c r="C126" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="D126" s="5">
         <v>0</v>
       </c>
       <c r="E126">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F126" s="5">
+        <v>0</v>
+      </c>
+      <c r="G126">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H126" s="1">
+        <v>0</v>
+      </c>
+      <c r="I126">
+        <f>(J126*(B126))</f>
+        <v>0</v>
+      </c>
+      <c r="J126" s="5">
+        <v>0</v>
+      </c>
+      <c r="L126" s="5"/>
+      <c r="M126" s="2">
+        <f>(N126*B126)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N126" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A127" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B127" s="4">
+        <v>0</v>
+      </c>
+      <c r="C127" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F126" s="5">
-        <v>0</v>
-      </c>
-      <c r="G126">
-        <v>0</v>
-      </c>
-      <c r="H126" s="1">
-        <v>0</v>
-      </c>
-      <c r="I126">
-        <v>0</v>
-      </c>
-      <c r="J126" s="5">
-        <v>0</v>
-      </c>
-      <c r="K126">
-        <v>0</v>
-      </c>
-      <c r="L126" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A127" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="B127" s="4">
-        <v>0</v>
-      </c>
-      <c r="C127" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="D127" s="5">
         <v>0</v>
       </c>
       <c r="E127">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F127" s="5">
+        <v>0</v>
+      </c>
+      <c r="G127">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H127" s="1">
+        <v>0</v>
+      </c>
+      <c r="I127">
+        <f>(J127*(B127))</f>
+        <v>0</v>
+      </c>
+      <c r="J127" s="5">
+        <v>0</v>
+      </c>
+      <c r="L127" s="5"/>
+      <c r="M127" s="2">
+        <f>(N127*B127)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N127" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A128" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B128" s="4">
+        <v>0</v>
+      </c>
+      <c r="C128" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F127" s="5">
-        <v>0</v>
-      </c>
-      <c r="G127">
-        <v>0</v>
-      </c>
-      <c r="H127" s="1">
-        <v>0</v>
-      </c>
-      <c r="I127">
-        <v>0</v>
-      </c>
-      <c r="J127" s="5">
-        <v>0</v>
-      </c>
-      <c r="K127">
-        <v>0</v>
-      </c>
-      <c r="L127" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A128" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="B128" s="4">
-        <v>0</v>
-      </c>
-      <c r="C128" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="D128" s="5">
         <v>0</v>
       </c>
       <c r="E128">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F128" s="5">
         <v>0</v>
       </c>
       <c r="G128">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H128" s="1">
         <v>0</v>
       </c>
       <c r="I128">
+        <f>(J128*(B128))</f>
         <v>0</v>
       </c>
       <c r="J128" s="5">
         <v>0</v>
       </c>
-      <c r="K128">
-        <v>0</v>
-      </c>
-      <c r="L128" s="7">
+      <c r="L128" s="5"/>
+      <c r="M128" s="2">
+        <f>(N128*B128)/1</f>
+        <v>0</v>
+      </c>
+      <c r="N128" s="7">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="O1:P2"/>
     <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K1:L2"/>
+    <mergeCell ref="M1:N2"/>
     <mergeCell ref="C1:J1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
+    <mergeCell ref="K2:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/public/formato/plantilla_techos.xlsx
+++ b/public/formato/plantilla_techos.xlsx
@@ -509,6 +509,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -520,13 +527,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -844,7 +844,7 @@
   <dimension ref="A1:P128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -859,7 +859,7 @@
     <col min="8" max="8" width="20.28515625" customWidth="1"/>
     <col min="9" max="9" width="15.42578125" customWidth="1"/>
     <col min="10" max="10" width="15" style="4" customWidth="1"/>
-    <col min="11" max="11" width="15" style="15" customWidth="1"/>
+    <col min="11" max="11" width="15" style="11" customWidth="1"/>
     <col min="12" max="12" width="15" style="4" customWidth="1"/>
     <col min="13" max="13" width="17.5703125" customWidth="1"/>
     <col min="14" max="14" width="11.42578125" style="4"/>
@@ -868,60 +868,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="10"/>
       <c r="L1" s="9"/>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="11"/>
-      <c r="O1" s="16" t="s">
+      <c r="N1" s="14"/>
+      <c r="O1" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="P1" s="16"/>
+      <c r="P1" s="12"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10" t="s">
+      <c r="A2" s="15"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10" t="s">
+      <c r="F2" s="13"/>
+      <c r="G2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10" t="s">
+      <c r="H2" s="13"/>
+      <c r="I2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10" t="s">
+      <c r="J2" s="13"/>
+      <c r="K2" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="L2" s="10"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -952,13 +952,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <f>(J3*(B3))</f>
+        <f t="shared" ref="I3:I34" si="0">(J3*(B3))</f>
         <v>0</v>
       </c>
       <c r="J3" s="5">
         <v>0</v>
       </c>
-      <c r="K3" s="15">
+      <c r="K3" s="11">
         <f>(L3*(B3))</f>
         <v>0</v>
       </c>
@@ -966,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="M3" s="2">
-        <f>(N3*B3)/1</f>
+        <f t="shared" ref="M3:M34" si="1">(N3*B3)/1</f>
         <v>0</v>
       </c>
       <c r="N3" s="7">
@@ -987,36 +987,42 @@
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <f t="shared" ref="C4:C67" si="0">(D4*(B4))</f>
+        <f t="shared" ref="C4:C67" si="2">(D4*(B4))</f>
         <v>0</v>
       </c>
       <c r="D4" s="5">
         <v>0</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E67" si="1">(F4*(B4))</f>
+        <f t="shared" ref="E4:E67" si="3">(F4*(B4))</f>
         <v>0</v>
       </c>
       <c r="F4" s="5">
         <v>0</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G67" si="2">(H4*(B4))</f>
+        <f t="shared" ref="G4:G67" si="4">(H4*(B4))</f>
         <v>0</v>
       </c>
       <c r="H4" s="1">
         <v>0</v>
       </c>
       <c r="I4">
-        <f>(J4*(B4))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J4" s="5">
         <v>0</v>
       </c>
-      <c r="L4" s="5"/>
+      <c r="K4" s="11">
+        <f t="shared" ref="K4:K67" si="5">(L4*(B4))</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0</v>
+      </c>
       <c r="M4" s="2">
-        <f>(N4*B4)/1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N4" s="7">
@@ -1031,36 +1037,42 @@
         <v>0</v>
       </c>
       <c r="C5" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D5" s="5">
-        <v>0</v>
-      </c>
-      <c r="E5">
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <f>(J5*(B5))</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="5">
-        <v>0</v>
-      </c>
-      <c r="L5" s="5"/>
-      <c r="M5" s="2">
-        <f>(N5*B5)/1</f>
         <v>0</v>
       </c>
       <c r="N5" s="7">
@@ -1075,36 +1087,42 @@
         <v>0</v>
       </c>
       <c r="C6" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D6" s="5">
-        <v>0</v>
-      </c>
-      <c r="E6">
+      <c r="J6" s="5">
+        <v>0</v>
+      </c>
+      <c r="K6" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <f>(J6*(B6))</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="5">
-        <v>0</v>
-      </c>
-      <c r="L6" s="5"/>
-      <c r="M6" s="2">
-        <f>(N6*B6)/1</f>
         <v>0</v>
       </c>
       <c r="N6" s="7">
@@ -1119,36 +1137,42 @@
         <v>0</v>
       </c>
       <c r="C7" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D7" s="5">
-        <v>0</v>
-      </c>
-      <c r="E7">
+      <c r="J7" s="5">
+        <v>0</v>
+      </c>
+      <c r="K7" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="5">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F7" s="5">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <f>(J7*(B7))</f>
-        <v>0</v>
-      </c>
-      <c r="J7" s="5">
-        <v>0</v>
-      </c>
-      <c r="L7" s="5"/>
-      <c r="M7" s="2">
-        <f>(N7*B7)/1</f>
         <v>0</v>
       </c>
       <c r="N7" s="7">
@@ -1163,36 +1187,42 @@
         <v>0</v>
       </c>
       <c r="C8" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D8" s="5">
-        <v>0</v>
-      </c>
-      <c r="E8">
+      <c r="J8" s="5">
+        <v>0</v>
+      </c>
+      <c r="K8" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="5">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="5">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <f>(J8*(B8))</f>
-        <v>0</v>
-      </c>
-      <c r="J8" s="5">
-        <v>0</v>
-      </c>
-      <c r="L8" s="5"/>
-      <c r="M8" s="2">
-        <f>(N8*B8)/1</f>
         <v>0</v>
       </c>
       <c r="N8" s="7">
@@ -1207,36 +1237,42 @@
         <v>0</v>
       </c>
       <c r="C9" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D9" s="5">
-        <v>0</v>
-      </c>
-      <c r="E9">
+      <c r="J9" s="5">
+        <v>0</v>
+      </c>
+      <c r="K9" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="5">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="5">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <f>(J9*(B9))</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="5">
-        <v>0</v>
-      </c>
-      <c r="L9" s="5"/>
-      <c r="M9" s="2">
-        <f>(N9*B9)/1</f>
         <v>0</v>
       </c>
       <c r="N9" s="7">
@@ -1251,36 +1287,42 @@
         <v>0</v>
       </c>
       <c r="C10" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D10" s="5">
-        <v>0</v>
-      </c>
-      <c r="E10">
+      <c r="J10" s="5">
+        <v>0</v>
+      </c>
+      <c r="K10" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="5">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F10" s="5">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <f>(J10*(B10))</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="5">
-        <v>0</v>
-      </c>
-      <c r="L10" s="5"/>
-      <c r="M10" s="2">
-        <f>(N10*B10)/1</f>
         <v>0</v>
       </c>
       <c r="N10" s="7">
@@ -1295,36 +1337,42 @@
         <v>0</v>
       </c>
       <c r="C11" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D11" s="5">
-        <v>0</v>
-      </c>
-      <c r="E11">
+      <c r="J11" s="5">
+        <v>0</v>
+      </c>
+      <c r="K11" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="5">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F11" s="5">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <f>(J11*(B11))</f>
-        <v>0</v>
-      </c>
-      <c r="J11" s="5">
-        <v>0</v>
-      </c>
-      <c r="L11" s="5"/>
-      <c r="M11" s="2">
-        <f>(N11*B11)/1</f>
         <v>0</v>
       </c>
       <c r="N11" s="7">
@@ -1339,36 +1387,42 @@
         <v>0</v>
       </c>
       <c r="C12" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D12" s="5">
-        <v>0</v>
-      </c>
-      <c r="E12">
+      <c r="J12" s="5">
+        <v>0</v>
+      </c>
+      <c r="K12" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="5">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F12" s="5">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <f>(J12*(B12))</f>
-        <v>0</v>
-      </c>
-      <c r="J12" s="5">
-        <v>0</v>
-      </c>
-      <c r="L12" s="5"/>
-      <c r="M12" s="2">
-        <f>(N12*B12)/1</f>
         <v>0</v>
       </c>
       <c r="N12" s="7">
@@ -1383,36 +1437,42 @@
         <v>0</v>
       </c>
       <c r="C13" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D13" s="5">
-        <v>0</v>
-      </c>
-      <c r="E13">
+      <c r="J13" s="5">
+        <v>0</v>
+      </c>
+      <c r="K13" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="5">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F13" s="5">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <f>(J13*(B13))</f>
-        <v>0</v>
-      </c>
-      <c r="J13" s="5">
-        <v>0</v>
-      </c>
-      <c r="L13" s="5"/>
-      <c r="M13" s="2">
-        <f>(N13*B13)/1</f>
         <v>0</v>
       </c>
       <c r="N13" s="7">
@@ -1427,36 +1487,42 @@
         <v>0</v>
       </c>
       <c r="C14" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D14" s="5">
-        <v>0</v>
-      </c>
-      <c r="E14">
+      <c r="J14" s="5">
+        <v>0</v>
+      </c>
+      <c r="K14" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="5">
+        <v>0</v>
+      </c>
+      <c r="M14" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F14" s="5">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <f>(J14*(B14))</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="5">
-        <v>0</v>
-      </c>
-      <c r="L14" s="5"/>
-      <c r="M14" s="2">
-        <f>(N14*B14)/1</f>
         <v>0</v>
       </c>
       <c r="N14" s="7">
@@ -1471,36 +1537,42 @@
         <v>0</v>
       </c>
       <c r="C15" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D15" s="5">
-        <v>0</v>
-      </c>
-      <c r="E15">
+      <c r="J15" s="5">
+        <v>0</v>
+      </c>
+      <c r="K15" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="5">
+        <v>0</v>
+      </c>
+      <c r="M15" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F15" s="5">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <f>(J15*(B15))</f>
-        <v>0</v>
-      </c>
-      <c r="J15" s="5">
-        <v>0</v>
-      </c>
-      <c r="L15" s="5"/>
-      <c r="M15" s="2">
-        <f>(N15*B15)/1</f>
         <v>0</v>
       </c>
       <c r="N15" s="7">
@@ -1515,36 +1587,42 @@
         <v>0</v>
       </c>
       <c r="C16" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D16" s="5">
-        <v>0</v>
-      </c>
-      <c r="E16">
+      <c r="J16" s="5">
+        <v>0</v>
+      </c>
+      <c r="K16" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="5">
+        <v>0</v>
+      </c>
+      <c r="M16" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F16" s="5">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <f>(J16*(B16))</f>
-        <v>0</v>
-      </c>
-      <c r="J16" s="5">
-        <v>0</v>
-      </c>
-      <c r="L16" s="5"/>
-      <c r="M16" s="2">
-        <f>(N16*B16)/1</f>
         <v>0</v>
       </c>
       <c r="N16" s="7">
@@ -1559,36 +1637,42 @@
         <v>0</v>
       </c>
       <c r="C17" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D17" s="5">
-        <v>0</v>
-      </c>
-      <c r="E17">
+      <c r="J17" s="5">
+        <v>0</v>
+      </c>
+      <c r="K17" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="5">
+        <v>0</v>
+      </c>
+      <c r="M17" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F17" s="5">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <f>(J17*(B17))</f>
-        <v>0</v>
-      </c>
-      <c r="J17" s="5">
-        <v>0</v>
-      </c>
-      <c r="L17" s="5"/>
-      <c r="M17" s="2">
-        <f>(N17*B17)/1</f>
         <v>0</v>
       </c>
       <c r="N17" s="7">
@@ -1603,36 +1687,42 @@
         <v>0</v>
       </c>
       <c r="C18" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D18" s="5">
-        <v>0</v>
-      </c>
-      <c r="E18">
+      <c r="J18" s="5">
+        <v>0</v>
+      </c>
+      <c r="K18" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="5">
+        <v>0</v>
+      </c>
+      <c r="M18" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F18" s="5">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="1">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <f>(J18*(B18))</f>
-        <v>0</v>
-      </c>
-      <c r="J18" s="5">
-        <v>0</v>
-      </c>
-      <c r="L18" s="5"/>
-      <c r="M18" s="2">
-        <f>(N18*B18)/1</f>
         <v>0</v>
       </c>
       <c r="N18" s="7">
@@ -1647,36 +1737,42 @@
         <v>0</v>
       </c>
       <c r="C19" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D19" s="5">
-        <v>0</v>
-      </c>
-      <c r="E19">
+      <c r="J19" s="5">
+        <v>0</v>
+      </c>
+      <c r="K19" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="5">
+        <v>0</v>
+      </c>
+      <c r="M19" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F19" s="5">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H19" s="1">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <f>(J19*(B19))</f>
-        <v>0</v>
-      </c>
-      <c r="J19" s="5">
-        <v>0</v>
-      </c>
-      <c r="L19" s="5"/>
-      <c r="M19" s="2">
-        <f>(N19*B19)/1</f>
         <v>0</v>
       </c>
       <c r="N19" s="7">
@@ -1691,36 +1787,42 @@
         <v>0</v>
       </c>
       <c r="C20" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D20" s="5">
-        <v>0</v>
-      </c>
-      <c r="E20">
+      <c r="J20" s="5">
+        <v>0</v>
+      </c>
+      <c r="K20" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="5">
+        <v>0</v>
+      </c>
+      <c r="M20" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F20" s="5">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H20" s="1">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <f>(J20*(B20))</f>
-        <v>0</v>
-      </c>
-      <c r="J20" s="5">
-        <v>0</v>
-      </c>
-      <c r="L20" s="5"/>
-      <c r="M20" s="2">
-        <f>(N20*B20)/1</f>
         <v>0</v>
       </c>
       <c r="N20" s="7">
@@ -1735,36 +1837,42 @@
         <v>0</v>
       </c>
       <c r="C21" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D21" s="5">
-        <v>0</v>
-      </c>
-      <c r="E21">
+      <c r="J21" s="5">
+        <v>0</v>
+      </c>
+      <c r="K21" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="5">
+        <v>0</v>
+      </c>
+      <c r="M21" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F21" s="5">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H21" s="1">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <f>(J21*(B21))</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="5">
-        <v>0</v>
-      </c>
-      <c r="L21" s="5"/>
-      <c r="M21" s="2">
-        <f>(N21*B21)/1</f>
         <v>0</v>
       </c>
       <c r="N21" s="7">
@@ -1779,36 +1887,42 @@
         <v>0</v>
       </c>
       <c r="C22" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D22" s="5">
-        <v>0</v>
-      </c>
-      <c r="E22">
+      <c r="J22" s="5">
+        <v>0</v>
+      </c>
+      <c r="K22" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="5">
+        <v>0</v>
+      </c>
+      <c r="M22" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F22" s="5">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H22" s="1">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <f>(J22*(B22))</f>
-        <v>0</v>
-      </c>
-      <c r="J22" s="5">
-        <v>0</v>
-      </c>
-      <c r="L22" s="5"/>
-      <c r="M22" s="2">
-        <f>(N22*B22)/1</f>
         <v>0</v>
       </c>
       <c r="N22" s="7">
@@ -1823,36 +1937,42 @@
         <v>0</v>
       </c>
       <c r="C23" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="5">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D23" s="5">
-        <v>0</v>
-      </c>
-      <c r="E23">
+      <c r="J23" s="5">
+        <v>0</v>
+      </c>
+      <c r="K23" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="5">
+        <v>0</v>
+      </c>
+      <c r="M23" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F23" s="5">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H23" s="1">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <f>(J23*(B23))</f>
-        <v>0</v>
-      </c>
-      <c r="J23" s="5">
-        <v>0</v>
-      </c>
-      <c r="L23" s="5"/>
-      <c r="M23" s="2">
-        <f>(N23*B23)/1</f>
         <v>0</v>
       </c>
       <c r="N23" s="7">
@@ -1867,36 +1987,42 @@
         <v>0</v>
       </c>
       <c r="C24" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="5">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D24" s="5">
-        <v>0</v>
-      </c>
-      <c r="E24">
+      <c r="J24" s="5">
+        <v>0</v>
+      </c>
+      <c r="K24" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="5">
+        <v>0</v>
+      </c>
+      <c r="M24" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F24" s="5">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H24" s="1">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <f>(J24*(B24))</f>
-        <v>0</v>
-      </c>
-      <c r="J24" s="5">
-        <v>0</v>
-      </c>
-      <c r="L24" s="5"/>
-      <c r="M24" s="2">
-        <f>(N24*B24)/1</f>
         <v>0</v>
       </c>
       <c r="N24" s="7">
@@ -1911,36 +2037,42 @@
         <v>0</v>
       </c>
       <c r="C25" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D25" s="5">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="5">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D25" s="5">
-        <v>0</v>
-      </c>
-      <c r="E25">
+      <c r="J25" s="5">
+        <v>0</v>
+      </c>
+      <c r="K25" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="5">
+        <v>0</v>
+      </c>
+      <c r="M25" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F25" s="5">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H25" s="1">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <f>(J25*(B25))</f>
-        <v>0</v>
-      </c>
-      <c r="J25" s="5">
-        <v>0</v>
-      </c>
-      <c r="L25" s="5"/>
-      <c r="M25" s="2">
-        <f>(N25*B25)/1</f>
         <v>0</v>
       </c>
       <c r="N25" s="7">
@@ -1955,36 +2087,42 @@
         <v>0</v>
       </c>
       <c r="C26" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D26" s="5">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="5">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+      <c r="I26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D26" s="5">
-        <v>0</v>
-      </c>
-      <c r="E26">
+      <c r="J26" s="5">
+        <v>0</v>
+      </c>
+      <c r="K26" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="5">
+        <v>0</v>
+      </c>
+      <c r="M26" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F26" s="5">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H26" s="1">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <f>(J26*(B26))</f>
-        <v>0</v>
-      </c>
-      <c r="J26" s="5">
-        <v>0</v>
-      </c>
-      <c r="L26" s="5"/>
-      <c r="M26" s="2">
-        <f>(N26*B26)/1</f>
         <v>0</v>
       </c>
       <c r="N26" s="7">
@@ -1999,36 +2137,42 @@
         <v>0</v>
       </c>
       <c r="C27" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D27" s="5">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="5">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+      <c r="I27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D27" s="5">
-        <v>0</v>
-      </c>
-      <c r="E27">
+      <c r="J27" s="5">
+        <v>0</v>
+      </c>
+      <c r="K27" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="5">
+        <v>0</v>
+      </c>
+      <c r="M27" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F27" s="5">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H27" s="1">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <f>(J27*(B27))</f>
-        <v>0</v>
-      </c>
-      <c r="J27" s="5">
-        <v>0</v>
-      </c>
-      <c r="L27" s="5"/>
-      <c r="M27" s="2">
-        <f>(N27*B27)/1</f>
         <v>0</v>
       </c>
       <c r="N27" s="7">
@@ -2043,36 +2187,42 @@
         <v>0</v>
       </c>
       <c r="C28" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D28" s="5">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="5">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+      <c r="I28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D28" s="5">
-        <v>0</v>
-      </c>
-      <c r="E28">
+      <c r="J28" s="5">
+        <v>0</v>
+      </c>
+      <c r="K28" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="5">
+        <v>0</v>
+      </c>
+      <c r="M28" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F28" s="5">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H28" s="1">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <f>(J28*(B28))</f>
-        <v>0</v>
-      </c>
-      <c r="J28" s="5">
-        <v>0</v>
-      </c>
-      <c r="L28" s="5"/>
-      <c r="M28" s="2">
-        <f>(N28*B28)/1</f>
         <v>0</v>
       </c>
       <c r="N28" s="7">
@@ -2087,36 +2237,42 @@
         <v>0</v>
       </c>
       <c r="C29" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D29" s="5">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="5">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0</v>
+      </c>
+      <c r="I29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D29" s="5">
-        <v>0</v>
-      </c>
-      <c r="E29">
+      <c r="J29" s="5">
+        <v>0</v>
+      </c>
+      <c r="K29" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="5">
+        <v>0</v>
+      </c>
+      <c r="M29" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F29" s="5">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H29" s="1">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <f>(J29*(B29))</f>
-        <v>0</v>
-      </c>
-      <c r="J29" s="5">
-        <v>0</v>
-      </c>
-      <c r="L29" s="5"/>
-      <c r="M29" s="2">
-        <f>(N29*B29)/1</f>
         <v>0</v>
       </c>
       <c r="N29" s="7">
@@ -2131,36 +2287,42 @@
         <v>0</v>
       </c>
       <c r="C30" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D30" s="5">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="5">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
+      <c r="I30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D30" s="5">
-        <v>0</v>
-      </c>
-      <c r="E30">
+      <c r="J30" s="5">
+        <v>0</v>
+      </c>
+      <c r="K30" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="5">
+        <v>0</v>
+      </c>
+      <c r="M30" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F30" s="5">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H30" s="1">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <f>(J30*(B30))</f>
-        <v>0</v>
-      </c>
-      <c r="J30" s="5">
-        <v>0</v>
-      </c>
-      <c r="L30" s="5"/>
-      <c r="M30" s="2">
-        <f>(N30*B30)/1</f>
         <v>0</v>
       </c>
       <c r="N30" s="7">
@@ -2175,36 +2337,42 @@
         <v>0</v>
       </c>
       <c r="C31" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D31" s="5">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F31" s="5">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0</v>
+      </c>
+      <c r="I31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D31" s="5">
-        <v>0</v>
-      </c>
-      <c r="E31">
+      <c r="J31" s="5">
+        <v>0</v>
+      </c>
+      <c r="K31" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="5">
+        <v>0</v>
+      </c>
+      <c r="M31" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F31" s="5">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H31" s="1">
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <f>(J31*(B31))</f>
-        <v>0</v>
-      </c>
-      <c r="J31" s="5">
-        <v>0</v>
-      </c>
-      <c r="L31" s="5"/>
-      <c r="M31" s="2">
-        <f>(N31*B31)/1</f>
         <v>0</v>
       </c>
       <c r="N31" s="7">
@@ -2219,36 +2387,42 @@
         <v>0</v>
       </c>
       <c r="C32" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D32" s="5">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F32" s="5">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0</v>
+      </c>
+      <c r="I32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D32" s="5">
-        <v>0</v>
-      </c>
-      <c r="E32">
+      <c r="J32" s="5">
+        <v>0</v>
+      </c>
+      <c r="K32" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="5">
+        <v>0</v>
+      </c>
+      <c r="M32" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F32" s="5">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H32" s="1">
-        <v>0</v>
-      </c>
-      <c r="I32">
-        <f>(J32*(B32))</f>
-        <v>0</v>
-      </c>
-      <c r="J32" s="5">
-        <v>0</v>
-      </c>
-      <c r="L32" s="5"/>
-      <c r="M32" s="2">
-        <f>(N32*B32)/1</f>
         <v>0</v>
       </c>
       <c r="N32" s="7">
@@ -2263,36 +2437,42 @@
         <v>0</v>
       </c>
       <c r="C33" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D33" s="5">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F33" s="5">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0</v>
+      </c>
+      <c r="I33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D33" s="5">
-        <v>0</v>
-      </c>
-      <c r="E33">
+      <c r="J33" s="5">
+        <v>0</v>
+      </c>
+      <c r="K33" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L33" s="5">
+        <v>0</v>
+      </c>
+      <c r="M33" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F33" s="5">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H33" s="1">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <f>(J33*(B33))</f>
-        <v>0</v>
-      </c>
-      <c r="J33" s="5">
-        <v>0</v>
-      </c>
-      <c r="L33" s="5"/>
-      <c r="M33" s="2">
-        <f>(N33*B33)/1</f>
         <v>0</v>
       </c>
       <c r="N33" s="7">
@@ -2307,36 +2487,42 @@
         <v>0</v>
       </c>
       <c r="C34" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D34" s="5">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F34" s="5">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0</v>
+      </c>
+      <c r="I34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D34" s="5">
-        <v>0</v>
-      </c>
-      <c r="E34">
+      <c r="J34" s="5">
+        <v>0</v>
+      </c>
+      <c r="K34" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L34" s="5">
+        <v>0</v>
+      </c>
+      <c r="M34" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F34" s="5">
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H34" s="1">
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <f>(J34*(B34))</f>
-        <v>0</v>
-      </c>
-      <c r="J34" s="5">
-        <v>0</v>
-      </c>
-      <c r="L34" s="5"/>
-      <c r="M34" s="2">
-        <f>(N34*B34)/1</f>
         <v>0</v>
       </c>
       <c r="N34" s="7">
@@ -2351,36 +2537,42 @@
         <v>0</v>
       </c>
       <c r="C35" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D35" s="5">
         <v>0</v>
       </c>
       <c r="E35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F35" s="5">
         <v>0</v>
       </c>
       <c r="G35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H35" s="1">
         <v>0</v>
       </c>
       <c r="I35">
-        <f>(J35*(B35))</f>
+        <f t="shared" ref="I35:I66" si="6">(J35*(B35))</f>
         <v>0</v>
       </c>
       <c r="J35" s="5">
         <v>0</v>
       </c>
-      <c r="L35" s="5"/>
+      <c r="K35" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L35" s="5">
+        <v>0</v>
+      </c>
       <c r="M35" s="2">
-        <f>(N35*B35)/1</f>
+        <f t="shared" ref="M35:M66" si="7">(N35*B35)/1</f>
         <v>0</v>
       </c>
       <c r="N35" s="7">
@@ -2395,36 +2587,42 @@
         <v>0</v>
       </c>
       <c r="C36" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D36" s="5">
         <v>0</v>
       </c>
       <c r="E36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F36" s="5">
         <v>0</v>
       </c>
       <c r="G36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H36" s="1">
         <v>0</v>
       </c>
       <c r="I36">
-        <f>(J36*(B36))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J36" s="5">
         <v>0</v>
       </c>
-      <c r="L36" s="5"/>
+      <c r="K36" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L36" s="5">
+        <v>0</v>
+      </c>
       <c r="M36" s="2">
-        <f>(N36*B36)/1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N36" s="7">
@@ -2439,36 +2637,42 @@
         <v>0</v>
       </c>
       <c r="C37" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D37" s="5">
         <v>0</v>
       </c>
       <c r="E37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F37" s="5">
         <v>0</v>
       </c>
       <c r="G37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H37" s="1">
         <v>0</v>
       </c>
       <c r="I37">
-        <f>(J37*(B37))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J37" s="5">
         <v>0</v>
       </c>
-      <c r="L37" s="5"/>
+      <c r="K37" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L37" s="5">
+        <v>0</v>
+      </c>
       <c r="M37" s="2">
-        <f>(N37*B37)/1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N37" s="7">
@@ -2483,36 +2687,42 @@
         <v>0</v>
       </c>
       <c r="C38" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D38" s="5">
         <v>0</v>
       </c>
       <c r="E38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F38" s="5">
         <v>0</v>
       </c>
       <c r="G38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H38" s="1">
         <v>0</v>
       </c>
       <c r="I38">
-        <f>(J38*(B38))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J38" s="5">
         <v>0</v>
       </c>
-      <c r="L38" s="5"/>
+      <c r="K38" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L38" s="5">
+        <v>0</v>
+      </c>
       <c r="M38" s="2">
-        <f>(N38*B38)/1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N38" s="7">
@@ -2527,36 +2737,42 @@
         <v>0</v>
       </c>
       <c r="C39" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D39" s="5">
         <v>0</v>
       </c>
       <c r="E39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F39" s="5">
         <v>0</v>
       </c>
       <c r="G39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H39" s="1">
         <v>0</v>
       </c>
       <c r="I39">
-        <f>(J39*(B39))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J39" s="5">
         <v>0</v>
       </c>
-      <c r="L39" s="5"/>
+      <c r="K39" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L39" s="5">
+        <v>0</v>
+      </c>
       <c r="M39" s="2">
-        <f>(N39*B39)/1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N39" s="7">
@@ -2571,36 +2787,42 @@
         <v>0</v>
       </c>
       <c r="C40" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D40" s="5">
         <v>0</v>
       </c>
       <c r="E40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F40" s="5">
         <v>0</v>
       </c>
       <c r="G40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H40" s="1">
         <v>0</v>
       </c>
       <c r="I40">
-        <f>(J40*(B40))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J40" s="5">
         <v>0</v>
       </c>
-      <c r="L40" s="5"/>
+      <c r="K40" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L40" s="5">
+        <v>0</v>
+      </c>
       <c r="M40" s="2">
-        <f>(N40*B40)/1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N40" s="7">
@@ -2615,36 +2837,42 @@
         <v>0</v>
       </c>
       <c r="C41" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D41" s="5">
         <v>0</v>
       </c>
       <c r="E41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F41" s="5">
         <v>0</v>
       </c>
       <c r="G41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H41" s="1">
         <v>0</v>
       </c>
       <c r="I41">
-        <f>(J41*(B41))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J41" s="5">
         <v>0</v>
       </c>
-      <c r="L41" s="5"/>
+      <c r="K41" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L41" s="5">
+        <v>0</v>
+      </c>
       <c r="M41" s="2">
-        <f>(N41*B41)/1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N41" s="7">
@@ -2659,36 +2887,42 @@
         <v>0</v>
       </c>
       <c r="C42" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D42" s="5">
         <v>0</v>
       </c>
       <c r="E42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F42" s="5">
         <v>0</v>
       </c>
       <c r="G42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H42" s="1">
         <v>0</v>
       </c>
       <c r="I42">
-        <f>(J42*(B42))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J42" s="5">
         <v>0</v>
       </c>
-      <c r="L42" s="5"/>
+      <c r="K42" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L42" s="5">
+        <v>0</v>
+      </c>
       <c r="M42" s="2">
-        <f>(N42*B42)/1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N42" s="7">
@@ -2703,36 +2937,42 @@
         <v>0</v>
       </c>
       <c r="C43" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D43" s="5">
         <v>0</v>
       </c>
       <c r="E43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F43" s="5">
         <v>0</v>
       </c>
       <c r="G43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H43" s="1">
         <v>0</v>
       </c>
       <c r="I43">
-        <f>(J43*(B43))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J43" s="5">
         <v>0</v>
       </c>
-      <c r="L43" s="5"/>
+      <c r="K43" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L43" s="5">
+        <v>0</v>
+      </c>
       <c r="M43" s="2">
-        <f>(N43*B43)/1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N43" s="7">
@@ -2747,36 +2987,42 @@
         <v>0</v>
       </c>
       <c r="C44" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D44" s="5">
         <v>0</v>
       </c>
       <c r="E44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F44" s="5">
         <v>0</v>
       </c>
       <c r="G44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H44" s="1">
         <v>0</v>
       </c>
       <c r="I44">
-        <f>(J44*(B44))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J44" s="5">
         <v>0</v>
       </c>
-      <c r="L44" s="5"/>
+      <c r="K44" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L44" s="5">
+        <v>0</v>
+      </c>
       <c r="M44" s="2">
-        <f>(N44*B44)/1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N44" s="7">
@@ -2791,36 +3037,42 @@
         <v>0</v>
       </c>
       <c r="C45" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D45" s="5">
         <v>0</v>
       </c>
       <c r="E45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F45" s="5">
         <v>0</v>
       </c>
       <c r="G45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H45" s="1">
         <v>0</v>
       </c>
       <c r="I45">
-        <f>(J45*(B45))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J45" s="5">
         <v>0</v>
       </c>
-      <c r="L45" s="5"/>
+      <c r="K45" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L45" s="5">
+        <v>0</v>
+      </c>
       <c r="M45" s="2">
-        <f>(N45*B45)/1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N45" s="7">
@@ -2835,36 +3087,42 @@
         <v>0</v>
       </c>
       <c r="C46" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D46" s="5">
         <v>0</v>
       </c>
       <c r="E46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F46" s="5">
         <v>0</v>
       </c>
       <c r="G46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H46" s="1">
         <v>0</v>
       </c>
       <c r="I46">
-        <f>(J46*(B46))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J46" s="5">
         <v>0</v>
       </c>
-      <c r="L46" s="5"/>
+      <c r="K46" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L46" s="5">
+        <v>0</v>
+      </c>
       <c r="M46" s="2">
-        <f>(N46*B46)/1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N46" s="7">
@@ -2879,36 +3137,42 @@
         <v>0</v>
       </c>
       <c r="C47" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D47" s="5">
         <v>0</v>
       </c>
       <c r="E47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F47" s="5">
         <v>0</v>
       </c>
       <c r="G47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H47" s="1">
         <v>0</v>
       </c>
       <c r="I47">
-        <f>(J47*(B47))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J47" s="5">
         <v>0</v>
       </c>
-      <c r="L47" s="5"/>
+      <c r="K47" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L47" s="5">
+        <v>0</v>
+      </c>
       <c r="M47" s="2">
-        <f>(N47*B47)/1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N47" s="7">
@@ -2923,36 +3187,42 @@
         <v>0</v>
       </c>
       <c r="C48" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D48" s="5">
         <v>0</v>
       </c>
       <c r="E48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F48" s="5">
         <v>0</v>
       </c>
       <c r="G48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H48" s="1">
         <v>0</v>
       </c>
       <c r="I48">
-        <f>(J48*(B48))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J48" s="5">
         <v>0</v>
       </c>
-      <c r="L48" s="5"/>
+      <c r="K48" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L48" s="5">
+        <v>0</v>
+      </c>
       <c r="M48" s="2">
-        <f>(N48*B48)/1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N48" s="7">
@@ -2967,36 +3237,42 @@
         <v>0</v>
       </c>
       <c r="C49" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D49" s="5">
         <v>0</v>
       </c>
       <c r="E49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F49" s="5">
         <v>0</v>
       </c>
       <c r="G49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H49" s="1">
         <v>0</v>
       </c>
       <c r="I49">
-        <f>(J49*(B49))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J49" s="5">
         <v>0</v>
       </c>
-      <c r="L49" s="5"/>
+      <c r="K49" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L49" s="5">
+        <v>0</v>
+      </c>
       <c r="M49" s="2">
-        <f>(N49*B49)/1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N49" s="7">
@@ -3011,36 +3287,42 @@
         <v>0</v>
       </c>
       <c r="C50" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D50" s="5">
         <v>0</v>
       </c>
       <c r="E50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F50" s="5">
         <v>0</v>
       </c>
       <c r="G50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H50" s="1">
         <v>0</v>
       </c>
       <c r="I50">
-        <f>(J50*(B50))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J50" s="5">
         <v>0</v>
       </c>
-      <c r="L50" s="5"/>
+      <c r="K50" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L50" s="5">
+        <v>0</v>
+      </c>
       <c r="M50" s="2">
-        <f>(N50*B50)/1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N50" s="7">
@@ -3055,36 +3337,42 @@
         <v>0</v>
       </c>
       <c r="C51" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D51" s="5">
         <v>0</v>
       </c>
       <c r="E51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F51" s="5">
         <v>0</v>
       </c>
       <c r="G51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H51" s="1">
         <v>0</v>
       </c>
       <c r="I51">
-        <f>(J51*(B51))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J51" s="5">
         <v>0</v>
       </c>
-      <c r="L51" s="5"/>
+      <c r="K51" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L51" s="5">
+        <v>0</v>
+      </c>
       <c r="M51" s="2">
-        <f>(N51*B51)/1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N51" s="7">
@@ -3099,36 +3387,42 @@
         <v>0</v>
       </c>
       <c r="C52" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D52" s="5">
         <v>0</v>
       </c>
       <c r="E52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F52" s="5">
         <v>0</v>
       </c>
       <c r="G52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H52" s="1">
         <v>0</v>
       </c>
       <c r="I52">
-        <f>(J52*(B52))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J52" s="5">
         <v>0</v>
       </c>
-      <c r="L52" s="5"/>
+      <c r="K52" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L52" s="5">
+        <v>0</v>
+      </c>
       <c r="M52" s="2">
-        <f>(N52*B52)/1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N52" s="7">
@@ -3143,36 +3437,42 @@
         <v>0</v>
       </c>
       <c r="C53" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D53" s="5">
         <v>0</v>
       </c>
       <c r="E53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F53" s="5">
         <v>0</v>
       </c>
       <c r="G53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H53" s="1">
         <v>0</v>
       </c>
       <c r="I53">
-        <f>(J53*(B53))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J53" s="5">
         <v>0</v>
       </c>
-      <c r="L53" s="5"/>
+      <c r="K53" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L53" s="5">
+        <v>0</v>
+      </c>
       <c r="M53" s="2">
-        <f>(N53*B53)/1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N53" s="7">
@@ -3187,36 +3487,42 @@
         <v>0</v>
       </c>
       <c r="C54" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D54" s="5">
         <v>0</v>
       </c>
       <c r="E54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F54" s="5">
         <v>0</v>
       </c>
       <c r="G54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H54" s="1">
         <v>0</v>
       </c>
       <c r="I54">
-        <f>(J54*(B54))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J54" s="5">
         <v>0</v>
       </c>
-      <c r="L54" s="5"/>
+      <c r="K54" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L54" s="5">
+        <v>0</v>
+      </c>
       <c r="M54" s="2">
-        <f>(N54*B54)/1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N54" s="7">
@@ -3231,36 +3537,42 @@
         <v>0</v>
       </c>
       <c r="C55" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D55" s="5">
         <v>0</v>
       </c>
       <c r="E55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F55" s="5">
         <v>0</v>
       </c>
       <c r="G55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H55" s="1">
         <v>0</v>
       </c>
       <c r="I55">
-        <f>(J55*(B55))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J55" s="5">
         <v>0</v>
       </c>
-      <c r="L55" s="5"/>
+      <c r="K55" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L55" s="5">
+        <v>0</v>
+      </c>
       <c r="M55" s="2">
-        <f>(N55*B55)/1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N55" s="7">
@@ -3275,36 +3587,42 @@
         <v>0</v>
       </c>
       <c r="C56" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D56" s="5">
         <v>0</v>
       </c>
       <c r="E56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F56" s="5">
         <v>0</v>
       </c>
       <c r="G56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H56" s="1">
         <v>0</v>
       </c>
       <c r="I56">
-        <f>(J56*(B56))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J56" s="5">
         <v>0</v>
       </c>
-      <c r="L56" s="5"/>
+      <c r="K56" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L56" s="5">
+        <v>0</v>
+      </c>
       <c r="M56" s="2">
-        <f>(N56*B56)/1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N56" s="7">
@@ -3319,36 +3637,42 @@
         <v>0</v>
       </c>
       <c r="C57" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D57" s="5">
         <v>0</v>
       </c>
       <c r="E57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F57" s="5">
         <v>0</v>
       </c>
       <c r="G57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H57" s="1">
         <v>0</v>
       </c>
       <c r="I57">
-        <f>(J57*(B57))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J57" s="5">
         <v>0</v>
       </c>
-      <c r="L57" s="5"/>
+      <c r="K57" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L57" s="5">
+        <v>0</v>
+      </c>
       <c r="M57" s="2">
-        <f>(N57*B57)/1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N57" s="7">
@@ -3363,36 +3687,42 @@
         <v>0</v>
       </c>
       <c r="C58" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D58" s="5">
         <v>0</v>
       </c>
       <c r="E58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F58" s="5">
         <v>0</v>
       </c>
       <c r="G58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H58" s="1">
         <v>0</v>
       </c>
       <c r="I58">
-        <f>(J58*(B58))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J58" s="5">
         <v>0</v>
       </c>
-      <c r="L58" s="5"/>
+      <c r="K58" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L58" s="5">
+        <v>0</v>
+      </c>
       <c r="M58" s="2">
-        <f>(N58*B58)/1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N58" s="7">
@@ -3407,36 +3737,42 @@
         <v>0</v>
       </c>
       <c r="C59" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D59" s="5">
         <v>0</v>
       </c>
       <c r="E59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F59" s="5">
         <v>0</v>
       </c>
       <c r="G59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H59" s="1">
         <v>0</v>
       </c>
       <c r="I59">
-        <f>(J59*(B59))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J59" s="5">
         <v>0</v>
       </c>
-      <c r="L59" s="5"/>
+      <c r="K59" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L59" s="5">
+        <v>0</v>
+      </c>
       <c r="M59" s="2">
-        <f>(N59*B59)/1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N59" s="7">
@@ -3451,36 +3787,42 @@
         <v>0</v>
       </c>
       <c r="C60" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D60" s="5">
         <v>0</v>
       </c>
       <c r="E60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F60" s="5">
         <v>0</v>
       </c>
       <c r="G60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H60" s="1">
         <v>0</v>
       </c>
       <c r="I60">
-        <f>(J60*(B60))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J60" s="5">
         <v>0</v>
       </c>
-      <c r="L60" s="5"/>
+      <c r="K60" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L60" s="5">
+        <v>0</v>
+      </c>
       <c r="M60" s="2">
-        <f>(N60*B60)/1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N60" s="7">
@@ -3495,36 +3837,42 @@
         <v>0</v>
       </c>
       <c r="C61" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D61" s="5">
         <v>0</v>
       </c>
       <c r="E61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F61" s="5">
         <v>0</v>
       </c>
       <c r="G61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H61" s="1">
         <v>0</v>
       </c>
       <c r="I61">
-        <f>(J61*(B61))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J61" s="5">
         <v>0</v>
       </c>
-      <c r="L61" s="5"/>
+      <c r="K61" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L61" s="5">
+        <v>0</v>
+      </c>
       <c r="M61" s="2">
-        <f>(N61*B61)/1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N61" s="7">
@@ -3539,36 +3887,42 @@
         <v>0</v>
       </c>
       <c r="C62" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D62" s="5">
         <v>0</v>
       </c>
       <c r="E62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F62" s="5">
         <v>0</v>
       </c>
       <c r="G62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H62" s="1">
         <v>0</v>
       </c>
       <c r="I62">
-        <f>(J62*(B62))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J62" s="5">
         <v>0</v>
       </c>
-      <c r="L62" s="5"/>
+      <c r="K62" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L62" s="5">
+        <v>0</v>
+      </c>
       <c r="M62" s="2">
-        <f>(N62*B62)/1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N62" s="7">
@@ -3583,36 +3937,42 @@
         <v>0</v>
       </c>
       <c r="C63" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D63" s="5">
         <v>0</v>
       </c>
       <c r="E63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F63" s="5">
         <v>0</v>
       </c>
       <c r="G63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H63" s="1">
         <v>0</v>
       </c>
       <c r="I63">
-        <f>(J63*(B63))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J63" s="5">
         <v>0</v>
       </c>
-      <c r="L63" s="5"/>
+      <c r="K63" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L63" s="5">
+        <v>0</v>
+      </c>
       <c r="M63" s="2">
-        <f>(N63*B63)/1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N63" s="7">
@@ -3627,36 +3987,42 @@
         <v>0</v>
       </c>
       <c r="C64" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D64" s="5">
         <v>0</v>
       </c>
       <c r="E64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F64" s="5">
         <v>0</v>
       </c>
       <c r="G64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H64" s="1">
         <v>0</v>
       </c>
       <c r="I64">
-        <f>(J64*(B64))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J64" s="5">
         <v>0</v>
       </c>
-      <c r="L64" s="5"/>
+      <c r="K64" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L64" s="5">
+        <v>0</v>
+      </c>
       <c r="M64" s="2">
-        <f>(N64*B64)/1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N64" s="7">
@@ -3671,36 +4037,42 @@
         <v>0</v>
       </c>
       <c r="C65" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D65" s="5">
         <v>0</v>
       </c>
       <c r="E65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F65" s="5">
         <v>0</v>
       </c>
       <c r="G65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H65" s="1">
         <v>0</v>
       </c>
       <c r="I65">
-        <f>(J65*(B65))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J65" s="5">
         <v>0</v>
       </c>
-      <c r="L65" s="5"/>
+      <c r="K65" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L65" s="5">
+        <v>0</v>
+      </c>
       <c r="M65" s="2">
-        <f>(N65*B65)/1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N65" s="7">
@@ -3715,36 +4087,42 @@
         <v>0</v>
       </c>
       <c r="C66" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D66" s="5">
         <v>0</v>
       </c>
       <c r="E66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F66" s="5">
         <v>0</v>
       </c>
       <c r="G66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H66" s="1">
         <v>0</v>
       </c>
       <c r="I66">
-        <f>(J66*(B66))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J66" s="5">
         <v>0</v>
       </c>
-      <c r="L66" s="5"/>
+      <c r="K66" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L66" s="5">
+        <v>0</v>
+      </c>
       <c r="M66" s="2">
-        <f>(N66*B66)/1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N66" s="7">
@@ -3759,36 +4137,42 @@
         <v>0</v>
       </c>
       <c r="C67" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D67" s="5">
         <v>0</v>
       </c>
       <c r="E67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F67" s="5">
         <v>0</v>
       </c>
       <c r="G67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H67" s="1">
         <v>0</v>
       </c>
       <c r="I67">
-        <f>(J67*(B67))</f>
+        <f t="shared" ref="I67:I98" si="8">(J67*(B67))</f>
         <v>0</v>
       </c>
       <c r="J67" s="5">
         <v>0</v>
       </c>
-      <c r="L67" s="5"/>
+      <c r="K67" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L67" s="5">
+        <v>0</v>
+      </c>
       <c r="M67" s="2">
-        <f>(N67*B67)/1</f>
+        <f t="shared" ref="M67:M98" si="9">(N67*B67)/1</f>
         <v>0</v>
       </c>
       <c r="N67" s="7">
@@ -3803,36 +4187,42 @@
         <v>0</v>
       </c>
       <c r="C68" s="2">
-        <f t="shared" ref="C68:C128" si="3">(D68*(B68))</f>
+        <f t="shared" ref="C68:C128" si="10">(D68*(B68))</f>
         <v>0</v>
       </c>
       <c r="D68" s="5">
         <v>0</v>
       </c>
       <c r="E68">
-        <f t="shared" ref="E68:E128" si="4">(F68*(B68))</f>
+        <f t="shared" ref="E68:E128" si="11">(F68*(B68))</f>
         <v>0</v>
       </c>
       <c r="F68" s="5">
         <v>0</v>
       </c>
       <c r="G68">
-        <f t="shared" ref="G68:G128" si="5">(H68*(B68))</f>
+        <f t="shared" ref="G68:G128" si="12">(H68*(B68))</f>
         <v>0</v>
       </c>
       <c r="H68" s="1">
         <v>0</v>
       </c>
       <c r="I68">
-        <f>(J68*(B68))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J68" s="5">
         <v>0</v>
       </c>
-      <c r="L68" s="5"/>
+      <c r="K68" s="11">
+        <f t="shared" ref="K68:K128" si="13">(L68*(B68))</f>
+        <v>0</v>
+      </c>
+      <c r="L68" s="5">
+        <v>0</v>
+      </c>
       <c r="M68" s="2">
-        <f>(N68*B68)/1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N68" s="7">
@@ -3847,36 +4237,42 @@
         <v>0</v>
       </c>
       <c r="C69" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D69" s="5">
         <v>0</v>
       </c>
       <c r="E69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F69" s="5">
         <v>0</v>
       </c>
       <c r="G69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H69" s="1">
         <v>0</v>
       </c>
       <c r="I69">
-        <f>(J69*(B69))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J69" s="5">
         <v>0</v>
       </c>
-      <c r="L69" s="5"/>
+      <c r="K69" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L69" s="5">
+        <v>0</v>
+      </c>
       <c r="M69" s="2">
-        <f>(N69*B69)/1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N69" s="7">
@@ -3891,36 +4287,42 @@
         <v>0</v>
       </c>
       <c r="C70" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D70" s="5">
         <v>0</v>
       </c>
       <c r="E70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F70" s="5">
         <v>0</v>
       </c>
       <c r="G70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H70" s="1">
         <v>0</v>
       </c>
       <c r="I70">
-        <f>(J70*(B70))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J70" s="5">
         <v>0</v>
       </c>
-      <c r="L70" s="5"/>
+      <c r="K70" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L70" s="5">
+        <v>0</v>
+      </c>
       <c r="M70" s="2">
-        <f>(N70*B70)/1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N70" s="7">
@@ -3935,36 +4337,42 @@
         <v>0</v>
       </c>
       <c r="C71" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D71" s="5">
         <v>0</v>
       </c>
       <c r="E71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F71" s="5">
         <v>0</v>
       </c>
       <c r="G71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H71" s="1">
         <v>0</v>
       </c>
       <c r="I71">
-        <f>(J71*(B71))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J71" s="5">
         <v>0</v>
       </c>
-      <c r="L71" s="5"/>
+      <c r="K71" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L71" s="5">
+        <v>0</v>
+      </c>
       <c r="M71" s="2">
-        <f>(N71*B71)/1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N71" s="7">
@@ -3979,36 +4387,42 @@
         <v>0</v>
       </c>
       <c r="C72" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D72" s="5">
         <v>0</v>
       </c>
       <c r="E72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F72" s="5">
         <v>0</v>
       </c>
       <c r="G72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H72" s="1">
         <v>0</v>
       </c>
       <c r="I72">
-        <f>(J72*(B72))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J72" s="5">
         <v>0</v>
       </c>
-      <c r="L72" s="5"/>
+      <c r="K72" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L72" s="5">
+        <v>0</v>
+      </c>
       <c r="M72" s="2">
-        <f>(N72*B72)/1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N72" s="7">
@@ -4023,36 +4437,42 @@
         <v>0</v>
       </c>
       <c r="C73" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D73" s="5">
         <v>0</v>
       </c>
       <c r="E73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F73" s="5">
         <v>0</v>
       </c>
       <c r="G73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H73" s="1">
         <v>0</v>
       </c>
       <c r="I73">
-        <f>(J73*(B73))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J73" s="5">
         <v>0</v>
       </c>
-      <c r="L73" s="5"/>
+      <c r="K73" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L73" s="5">
+        <v>0</v>
+      </c>
       <c r="M73" s="2">
-        <f>(N73*B73)/1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N73" s="7">
@@ -4067,36 +4487,42 @@
         <v>0</v>
       </c>
       <c r="C74" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D74" s="5">
         <v>0</v>
       </c>
       <c r="E74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F74" s="5">
         <v>0</v>
       </c>
       <c r="G74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H74" s="1">
         <v>0</v>
       </c>
       <c r="I74">
-        <f>(J74*(B74))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J74" s="5">
         <v>0</v>
       </c>
-      <c r="L74" s="5"/>
+      <c r="K74" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L74" s="5">
+        <v>0</v>
+      </c>
       <c r="M74" s="2">
-        <f>(N74*B74)/1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N74" s="7">
@@ -4111,36 +4537,42 @@
         <v>0</v>
       </c>
       <c r="C75" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D75" s="5">
         <v>0</v>
       </c>
       <c r="E75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F75" s="5">
         <v>0</v>
       </c>
       <c r="G75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H75" s="1">
         <v>0</v>
       </c>
       <c r="I75">
-        <f>(J75*(B75))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J75" s="5">
         <v>0</v>
       </c>
-      <c r="L75" s="5"/>
+      <c r="K75" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L75" s="5">
+        <v>0</v>
+      </c>
       <c r="M75" s="2">
-        <f>(N75*B75)/1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N75" s="7">
@@ -4155,36 +4587,42 @@
         <v>0</v>
       </c>
       <c r="C76" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D76" s="5">
         <v>0</v>
       </c>
       <c r="E76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F76" s="5">
         <v>0</v>
       </c>
       <c r="G76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H76" s="1">
         <v>0</v>
       </c>
       <c r="I76">
-        <f>(J76*(B76))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J76" s="5">
         <v>0</v>
       </c>
-      <c r="L76" s="5"/>
+      <c r="K76" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L76" s="5">
+        <v>0</v>
+      </c>
       <c r="M76" s="2">
-        <f>(N76*B76)/1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N76" s="7">
@@ -4199,36 +4637,42 @@
         <v>0</v>
       </c>
       <c r="C77" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D77" s="5">
         <v>0</v>
       </c>
       <c r="E77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F77" s="5">
         <v>0</v>
       </c>
       <c r="G77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H77" s="1">
         <v>0</v>
       </c>
       <c r="I77">
-        <f>(J77*(B77))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J77" s="5">
         <v>0</v>
       </c>
-      <c r="L77" s="5"/>
+      <c r="K77" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L77" s="5">
+        <v>0</v>
+      </c>
       <c r="M77" s="2">
-        <f>(N77*B77)/1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N77" s="7">
@@ -4243,36 +4687,42 @@
         <v>0</v>
       </c>
       <c r="C78" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D78" s="5">
         <v>0</v>
       </c>
       <c r="E78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F78" s="5">
         <v>0</v>
       </c>
       <c r="G78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H78" s="1">
         <v>0</v>
       </c>
       <c r="I78">
-        <f>(J78*(B78))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J78" s="5">
         <v>0</v>
       </c>
-      <c r="L78" s="5"/>
+      <c r="K78" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L78" s="5">
+        <v>0</v>
+      </c>
       <c r="M78" s="2">
-        <f>(N78*B78)/1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N78" s="7">
@@ -4287,36 +4737,42 @@
         <v>0</v>
       </c>
       <c r="C79" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D79" s="5">
         <v>0</v>
       </c>
       <c r="E79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F79" s="5">
         <v>0</v>
       </c>
       <c r="G79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H79" s="1">
         <v>0</v>
       </c>
       <c r="I79">
-        <f>(J79*(B79))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J79" s="5">
         <v>0</v>
       </c>
-      <c r="L79" s="5"/>
+      <c r="K79" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L79" s="5">
+        <v>0</v>
+      </c>
       <c r="M79" s="2">
-        <f>(N79*B79)/1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N79" s="7">
@@ -4331,36 +4787,42 @@
         <v>0</v>
       </c>
       <c r="C80" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D80" s="5">
         <v>0</v>
       </c>
       <c r="E80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F80" s="5">
         <v>0</v>
       </c>
       <c r="G80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H80" s="1">
         <v>0</v>
       </c>
       <c r="I80">
-        <f>(J80*(B80))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J80" s="5">
         <v>0</v>
       </c>
-      <c r="L80" s="5"/>
+      <c r="K80" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L80" s="5">
+        <v>0</v>
+      </c>
       <c r="M80" s="2">
-        <f>(N80*B80)/1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N80" s="7">
@@ -4375,36 +4837,42 @@
         <v>0</v>
       </c>
       <c r="C81" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D81" s="5">
         <v>0</v>
       </c>
       <c r="E81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F81" s="5">
         <v>0</v>
       </c>
       <c r="G81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H81" s="1">
         <v>0</v>
       </c>
       <c r="I81">
-        <f>(J81*(B81))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J81" s="5">
         <v>0</v>
       </c>
-      <c r="L81" s="5"/>
+      <c r="K81" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L81" s="5">
+        <v>0</v>
+      </c>
       <c r="M81" s="2">
-        <f>(N81*B81)/1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N81" s="7">
@@ -4419,36 +4887,42 @@
         <v>0</v>
       </c>
       <c r="C82" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D82" s="5">
         <v>0</v>
       </c>
       <c r="E82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F82" s="5">
         <v>0</v>
       </c>
       <c r="G82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H82" s="1">
         <v>0</v>
       </c>
       <c r="I82">
-        <f>(J82*(B82))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J82" s="5">
         <v>0</v>
       </c>
-      <c r="L82" s="5"/>
+      <c r="K82" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L82" s="5">
+        <v>0</v>
+      </c>
       <c r="M82" s="2">
-        <f>(N82*B82)/1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N82" s="7">
@@ -4463,36 +4937,42 @@
         <v>0</v>
       </c>
       <c r="C83" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D83" s="5">
         <v>0</v>
       </c>
       <c r="E83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F83" s="5">
         <v>0</v>
       </c>
       <c r="G83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H83" s="1">
         <v>0</v>
       </c>
       <c r="I83">
-        <f>(J83*(B83))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J83" s="5">
         <v>0</v>
       </c>
-      <c r="L83" s="5"/>
+      <c r="K83" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L83" s="5">
+        <v>0</v>
+      </c>
       <c r="M83" s="2">
-        <f>(N83*B83)/1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N83" s="7">
@@ -4507,36 +4987,42 @@
         <v>0</v>
       </c>
       <c r="C84" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D84" s="5">
         <v>0</v>
       </c>
       <c r="E84">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F84" s="5">
         <v>0</v>
       </c>
       <c r="G84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H84" s="1">
         <v>0</v>
       </c>
       <c r="I84">
-        <f>(J84*(B84))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J84" s="5">
         <v>0</v>
       </c>
-      <c r="L84" s="5"/>
+      <c r="K84" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L84" s="5">
+        <v>0</v>
+      </c>
       <c r="M84" s="2">
-        <f>(N84*B84)/1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N84" s="7">
@@ -4551,36 +5037,42 @@
         <v>0</v>
       </c>
       <c r="C85" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D85" s="5">
         <v>0</v>
       </c>
       <c r="E85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F85" s="5">
         <v>0</v>
       </c>
       <c r="G85">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H85" s="1">
         <v>0</v>
       </c>
       <c r="I85">
-        <f>(J85*(B85))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J85" s="5">
         <v>0</v>
       </c>
-      <c r="L85" s="5"/>
+      <c r="K85" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L85" s="5">
+        <v>0</v>
+      </c>
       <c r="M85" s="2">
-        <f>(N85*B85)/1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N85" s="7">
@@ -4595,36 +5087,42 @@
         <v>0</v>
       </c>
       <c r="C86" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D86" s="5">
         <v>0</v>
       </c>
       <c r="E86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F86" s="5">
         <v>0</v>
       </c>
       <c r="G86">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H86" s="1">
         <v>0</v>
       </c>
       <c r="I86">
-        <f>(J86*(B86))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J86" s="5">
         <v>0</v>
       </c>
-      <c r="L86" s="5"/>
+      <c r="K86" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L86" s="5">
+        <v>0</v>
+      </c>
       <c r="M86" s="2">
-        <f>(N86*B86)/1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N86" s="7">
@@ -4639,36 +5137,42 @@
         <v>0</v>
       </c>
       <c r="C87" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D87" s="5">
         <v>0</v>
       </c>
       <c r="E87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F87" s="5">
         <v>0</v>
       </c>
       <c r="G87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H87" s="1">
         <v>0</v>
       </c>
       <c r="I87">
-        <f>(J87*(B87))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J87" s="5">
         <v>0</v>
       </c>
-      <c r="L87" s="5"/>
+      <c r="K87" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L87" s="5">
+        <v>0</v>
+      </c>
       <c r="M87" s="2">
-        <f>(N87*B87)/1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N87" s="7">
@@ -4683,36 +5187,42 @@
         <v>0</v>
       </c>
       <c r="C88" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D88" s="5">
         <v>0</v>
       </c>
       <c r="E88">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F88" s="5">
         <v>0</v>
       </c>
       <c r="G88">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H88" s="1">
         <v>0</v>
       </c>
       <c r="I88">
-        <f>(J88*(B88))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J88" s="5">
         <v>0</v>
       </c>
-      <c r="L88" s="5"/>
+      <c r="K88" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L88" s="5">
+        <v>0</v>
+      </c>
       <c r="M88" s="2">
-        <f>(N88*B88)/1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N88" s="7">
@@ -4727,36 +5237,42 @@
         <v>0</v>
       </c>
       <c r="C89" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D89" s="5">
         <v>0</v>
       </c>
       <c r="E89">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F89" s="5">
         <v>0</v>
       </c>
       <c r="G89">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H89" s="1">
         <v>0</v>
       </c>
       <c r="I89">
-        <f>(J89*(B89))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J89" s="5">
         <v>0</v>
       </c>
-      <c r="L89" s="5"/>
+      <c r="K89" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L89" s="5">
+        <v>0</v>
+      </c>
       <c r="M89" s="2">
-        <f>(N89*B89)/1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N89" s="7">
@@ -4771,36 +5287,42 @@
         <v>0</v>
       </c>
       <c r="C90" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D90" s="5">
         <v>0</v>
       </c>
       <c r="E90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F90" s="5">
         <v>0</v>
       </c>
       <c r="G90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H90" s="1">
         <v>0</v>
       </c>
       <c r="I90">
-        <f>(J90*(B90))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J90" s="5">
         <v>0</v>
       </c>
-      <c r="L90" s="5"/>
+      <c r="K90" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L90" s="5">
+        <v>0</v>
+      </c>
       <c r="M90" s="2">
-        <f>(N90*B90)/1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N90" s="7">
@@ -4815,36 +5337,42 @@
         <v>0</v>
       </c>
       <c r="C91" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D91" s="5">
         <v>0</v>
       </c>
       <c r="E91">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F91" s="5">
         <v>0</v>
       </c>
       <c r="G91">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H91" s="1">
         <v>0</v>
       </c>
       <c r="I91">
-        <f>(J91*(B91))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J91" s="5">
         <v>0</v>
       </c>
-      <c r="L91" s="5"/>
+      <c r="K91" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L91" s="5">
+        <v>0</v>
+      </c>
       <c r="M91" s="2">
-        <f>(N91*B91)/1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N91" s="7">
@@ -4859,36 +5387,42 @@
         <v>0</v>
       </c>
       <c r="C92" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D92" s="5">
         <v>0</v>
       </c>
       <c r="E92">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F92" s="5">
         <v>0</v>
       </c>
       <c r="G92">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H92" s="1">
         <v>0</v>
       </c>
       <c r="I92">
-        <f>(J92*(B92))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J92" s="5">
         <v>0</v>
       </c>
-      <c r="L92" s="5"/>
+      <c r="K92" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L92" s="5">
+        <v>0</v>
+      </c>
       <c r="M92" s="2">
-        <f>(N92*B92)/1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N92" s="7">
@@ -4903,36 +5437,42 @@
         <v>0</v>
       </c>
       <c r="C93" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D93" s="5">
         <v>0</v>
       </c>
       <c r="E93">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F93" s="5">
         <v>0</v>
       </c>
       <c r="G93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H93" s="1">
         <v>0</v>
       </c>
       <c r="I93">
-        <f>(J93*(B93))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J93" s="5">
         <v>0</v>
       </c>
-      <c r="L93" s="5"/>
+      <c r="K93" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L93" s="5">
+        <v>0</v>
+      </c>
       <c r="M93" s="2">
-        <f>(N93*B93)/1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N93" s="7">
@@ -4947,36 +5487,42 @@
         <v>0</v>
       </c>
       <c r="C94" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D94" s="5">
         <v>0</v>
       </c>
       <c r="E94">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F94" s="5">
         <v>0</v>
       </c>
       <c r="G94">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H94" s="1">
         <v>0</v>
       </c>
       <c r="I94">
-        <f>(J94*(B94))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J94" s="5">
         <v>0</v>
       </c>
-      <c r="L94" s="5"/>
+      <c r="K94" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L94" s="5">
+        <v>0</v>
+      </c>
       <c r="M94" s="2">
-        <f>(N94*B94)/1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N94" s="7">
@@ -4991,36 +5537,42 @@
         <v>0</v>
       </c>
       <c r="C95" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D95" s="5">
         <v>0</v>
       </c>
       <c r="E95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F95" s="5">
         <v>0</v>
       </c>
       <c r="G95">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H95" s="1">
         <v>0</v>
       </c>
       <c r="I95">
-        <f>(J95*(B95))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J95" s="5">
         <v>0</v>
       </c>
-      <c r="L95" s="5"/>
+      <c r="K95" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L95" s="5">
+        <v>0</v>
+      </c>
       <c r="M95" s="2">
-        <f>(N95*B95)/1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N95" s="7">
@@ -5035,36 +5587,42 @@
         <v>0</v>
       </c>
       <c r="C96" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D96" s="5">
         <v>0</v>
       </c>
       <c r="E96">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F96" s="5">
         <v>0</v>
       </c>
       <c r="G96">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H96" s="1">
         <v>0</v>
       </c>
       <c r="I96">
-        <f>(J96*(B96))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J96" s="5">
         <v>0</v>
       </c>
-      <c r="L96" s="5"/>
+      <c r="K96" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L96" s="5">
+        <v>0</v>
+      </c>
       <c r="M96" s="2">
-        <f>(N96*B96)/1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N96" s="7">
@@ -5079,36 +5637,42 @@
         <v>0</v>
       </c>
       <c r="C97" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D97" s="5">
         <v>0</v>
       </c>
       <c r="E97">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F97" s="5">
         <v>0</v>
       </c>
       <c r="G97">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H97" s="1">
         <v>0</v>
       </c>
       <c r="I97">
-        <f>(J97*(B97))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J97" s="5">
         <v>0</v>
       </c>
-      <c r="L97" s="5"/>
+      <c r="K97" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L97" s="5">
+        <v>0</v>
+      </c>
       <c r="M97" s="2">
-        <f>(N97*B97)/1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N97" s="7">
@@ -5123,36 +5687,42 @@
         <v>0</v>
       </c>
       <c r="C98" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D98" s="5">
         <v>0</v>
       </c>
       <c r="E98">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F98" s="5">
         <v>0</v>
       </c>
       <c r="G98">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H98" s="1">
         <v>0</v>
       </c>
       <c r="I98">
-        <f>(J98*(B98))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J98" s="5">
         <v>0</v>
       </c>
-      <c r="L98" s="5"/>
+      <c r="K98" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L98" s="5">
+        <v>0</v>
+      </c>
       <c r="M98" s="2">
-        <f>(N98*B98)/1</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N98" s="7">
@@ -5167,36 +5737,42 @@
         <v>0</v>
       </c>
       <c r="C99" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D99" s="5">
         <v>0</v>
       </c>
       <c r="E99">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F99" s="5">
         <v>0</v>
       </c>
       <c r="G99">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H99" s="1">
         <v>0</v>
       </c>
       <c r="I99">
-        <f>(J99*(B99))</f>
+        <f t="shared" ref="I99:I130" si="14">(J99*(B99))</f>
         <v>0</v>
       </c>
       <c r="J99" s="5">
         <v>0</v>
       </c>
-      <c r="L99" s="5"/>
+      <c r="K99" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L99" s="5">
+        <v>0</v>
+      </c>
       <c r="M99" s="2">
-        <f>(N99*B99)/1</f>
+        <f t="shared" ref="M99:M130" si="15">(N99*B99)/1</f>
         <v>0</v>
       </c>
       <c r="N99" s="7">
@@ -5211,36 +5787,42 @@
         <v>0</v>
       </c>
       <c r="C100" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D100" s="5">
         <v>0</v>
       </c>
       <c r="E100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F100" s="5">
         <v>0</v>
       </c>
       <c r="G100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H100" s="1">
         <v>0</v>
       </c>
       <c r="I100">
-        <f>(J100*(B100))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J100" s="5">
         <v>0</v>
       </c>
-      <c r="L100" s="5"/>
+      <c r="K100" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L100" s="5">
+        <v>0</v>
+      </c>
       <c r="M100" s="2">
-        <f>(N100*B100)/1</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N100" s="7">
@@ -5255,36 +5837,42 @@
         <v>0</v>
       </c>
       <c r="C101" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D101" s="5">
         <v>0</v>
       </c>
       <c r="E101">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F101" s="5">
         <v>0</v>
       </c>
       <c r="G101">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H101" s="1">
         <v>0</v>
       </c>
       <c r="I101">
-        <f>(J101*(B101))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J101" s="5">
         <v>0</v>
       </c>
-      <c r="L101" s="5"/>
+      <c r="K101" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L101" s="5">
+        <v>0</v>
+      </c>
       <c r="M101" s="2">
-        <f>(N101*B101)/1</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N101" s="7">
@@ -5299,36 +5887,42 @@
         <v>0</v>
       </c>
       <c r="C102" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D102" s="5">
         <v>0</v>
       </c>
       <c r="E102">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F102" s="5">
         <v>0</v>
       </c>
       <c r="G102">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H102" s="1">
         <v>0</v>
       </c>
       <c r="I102">
-        <f>(J102*(B102))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J102" s="5">
         <v>0</v>
       </c>
-      <c r="L102" s="5"/>
+      <c r="K102" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L102" s="5">
+        <v>0</v>
+      </c>
       <c r="M102" s="2">
-        <f>(N102*B102)/1</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N102" s="7">
@@ -5343,36 +5937,42 @@
         <v>0</v>
       </c>
       <c r="C103" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D103" s="5">
         <v>0</v>
       </c>
       <c r="E103">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F103" s="5">
         <v>0</v>
       </c>
       <c r="G103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H103" s="1">
         <v>0</v>
       </c>
       <c r="I103">
-        <f>(J103*(B103))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J103" s="5">
         <v>0</v>
       </c>
-      <c r="L103" s="5"/>
+      <c r="K103" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L103" s="5">
+        <v>0</v>
+      </c>
       <c r="M103" s="2">
-        <f>(N103*B103)/1</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N103" s="7">
@@ -5387,36 +5987,42 @@
         <v>0</v>
       </c>
       <c r="C104" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D104" s="5">
         <v>0</v>
       </c>
       <c r="E104">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F104" s="5">
         <v>0</v>
       </c>
       <c r="G104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H104" s="1">
         <v>0</v>
       </c>
       <c r="I104">
-        <f>(J104*(B104))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J104" s="5">
         <v>0</v>
       </c>
-      <c r="L104" s="5"/>
+      <c r="K104" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L104" s="5">
+        <v>0</v>
+      </c>
       <c r="M104" s="2">
-        <f>(N104*B104)/1</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N104" s="7">
@@ -5431,36 +6037,42 @@
         <v>0</v>
       </c>
       <c r="C105" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D105" s="5">
         <v>0</v>
       </c>
       <c r="E105">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F105" s="5">
         <v>0</v>
       </c>
       <c r="G105">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H105" s="1">
         <v>0</v>
       </c>
       <c r="I105">
-        <f>(J105*(B105))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J105" s="5">
         <v>0</v>
       </c>
-      <c r="L105" s="5"/>
+      <c r="K105" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L105" s="5">
+        <v>0</v>
+      </c>
       <c r="M105" s="2">
-        <f>(N105*B105)/1</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N105" s="7">
@@ -5475,36 +6087,42 @@
         <v>0</v>
       </c>
       <c r="C106" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D106" s="5">
         <v>0</v>
       </c>
       <c r="E106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F106" s="5">
         <v>0</v>
       </c>
       <c r="G106">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H106" s="1">
         <v>0</v>
       </c>
       <c r="I106">
-        <f>(J106*(B106))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J106" s="5">
         <v>0</v>
       </c>
-      <c r="L106" s="5"/>
+      <c r="K106" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L106" s="5">
+        <v>0</v>
+      </c>
       <c r="M106" s="2">
-        <f>(N106*B106)/1</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N106" s="7">
@@ -5519,36 +6137,42 @@
         <v>0</v>
       </c>
       <c r="C107" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D107" s="5">
         <v>0</v>
       </c>
       <c r="E107">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F107" s="5">
         <v>0</v>
       </c>
       <c r="G107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H107" s="1">
         <v>0</v>
       </c>
       <c r="I107">
-        <f>(J107*(B107))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J107" s="5">
         <v>0</v>
       </c>
-      <c r="L107" s="5"/>
+      <c r="K107" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L107" s="5">
+        <v>0</v>
+      </c>
       <c r="M107" s="2">
-        <f>(N107*B107)/1</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N107" s="7">
@@ -5563,36 +6187,42 @@
         <v>0</v>
       </c>
       <c r="C108" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D108" s="5">
         <v>0</v>
       </c>
       <c r="E108">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F108" s="5">
         <v>0</v>
       </c>
       <c r="G108">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H108" s="1">
         <v>0</v>
       </c>
       <c r="I108">
-        <f>(J108*(B108))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J108" s="5">
         <v>0</v>
       </c>
-      <c r="L108" s="5"/>
+      <c r="K108" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L108" s="5">
+        <v>0</v>
+      </c>
       <c r="M108" s="2">
-        <f>(N108*B108)/1</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N108" s="7">
@@ -5607,36 +6237,42 @@
         <v>0</v>
       </c>
       <c r="C109" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D109" s="5">
         <v>0</v>
       </c>
       <c r="E109">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F109" s="5">
         <v>0</v>
       </c>
       <c r="G109">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H109" s="1">
         <v>0</v>
       </c>
       <c r="I109">
-        <f>(J109*(B109))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J109" s="5">
         <v>0</v>
       </c>
-      <c r="L109" s="5"/>
+      <c r="K109" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L109" s="5">
+        <v>0</v>
+      </c>
       <c r="M109" s="2">
-        <f>(N109*B109)/1</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N109" s="7">
@@ -5651,36 +6287,42 @@
         <v>0</v>
       </c>
       <c r="C110" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D110" s="5">
         <v>0</v>
       </c>
       <c r="E110">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F110" s="5">
         <v>0</v>
       </c>
       <c r="G110">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H110" s="1">
         <v>0</v>
       </c>
       <c r="I110">
-        <f>(J110*(B110))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J110" s="5">
         <v>0</v>
       </c>
-      <c r="L110" s="5"/>
+      <c r="K110" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L110" s="5">
+        <v>0</v>
+      </c>
       <c r="M110" s="2">
-        <f>(N110*B110)/1</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N110" s="7">
@@ -5695,36 +6337,42 @@
         <v>0</v>
       </c>
       <c r="C111" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D111" s="5">
         <v>0</v>
       </c>
       <c r="E111">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F111" s="5">
         <v>0</v>
       </c>
       <c r="G111">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H111" s="1">
         <v>0</v>
       </c>
       <c r="I111">
-        <f>(J111*(B111))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J111" s="5">
         <v>0</v>
       </c>
-      <c r="L111" s="5"/>
+      <c r="K111" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L111" s="5">
+        <v>0</v>
+      </c>
       <c r="M111" s="2">
-        <f>(N111*B111)/1</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N111" s="7">
@@ -5739,36 +6387,42 @@
         <v>0</v>
       </c>
       <c r="C112" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D112" s="5">
         <v>0</v>
       </c>
       <c r="E112">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F112" s="5">
         <v>0</v>
       </c>
       <c r="G112">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H112" s="1">
         <v>0</v>
       </c>
       <c r="I112">
-        <f>(J112*(B112))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J112" s="5">
         <v>0</v>
       </c>
-      <c r="L112" s="5"/>
+      <c r="K112" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L112" s="5">
+        <v>0</v>
+      </c>
       <c r="M112" s="2">
-        <f>(N112*B112)/1</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N112" s="7">
@@ -5783,36 +6437,42 @@
         <v>0</v>
       </c>
       <c r="C113" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D113" s="5">
         <v>0</v>
       </c>
       <c r="E113">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F113" s="5">
         <v>0</v>
       </c>
       <c r="G113">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H113" s="1">
         <v>0</v>
       </c>
       <c r="I113">
-        <f>(J113*(B113))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J113" s="5">
         <v>0</v>
       </c>
-      <c r="L113" s="5"/>
+      <c r="K113" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L113" s="5">
+        <v>0</v>
+      </c>
       <c r="M113" s="2">
-        <f>(N113*B113)/1</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N113" s="7">
@@ -5827,36 +6487,42 @@
         <v>0</v>
       </c>
       <c r="C114" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D114" s="5">
         <v>0</v>
       </c>
       <c r="E114">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F114" s="5">
         <v>0</v>
       </c>
       <c r="G114">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H114" s="1">
         <v>0</v>
       </c>
       <c r="I114">
-        <f>(J114*(B114))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J114" s="5">
         <v>0</v>
       </c>
-      <c r="L114" s="5"/>
+      <c r="K114" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L114" s="5">
+        <v>0</v>
+      </c>
       <c r="M114" s="2">
-        <f>(N114*B114)/1</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N114" s="7">
@@ -5871,36 +6537,42 @@
         <v>0</v>
       </c>
       <c r="C115" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D115" s="5">
         <v>0</v>
       </c>
       <c r="E115">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F115" s="5">
         <v>0</v>
       </c>
       <c r="G115">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H115" s="1">
         <v>0</v>
       </c>
       <c r="I115">
-        <f>(J115*(B115))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J115" s="5">
         <v>0</v>
       </c>
-      <c r="L115" s="5"/>
+      <c r="K115" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L115" s="5">
+        <v>0</v>
+      </c>
       <c r="M115" s="2">
-        <f>(N115*B115)/1</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N115" s="7">
@@ -5915,36 +6587,42 @@
         <v>0</v>
       </c>
       <c r="C116" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D116" s="5">
         <v>0</v>
       </c>
       <c r="E116">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F116" s="5">
         <v>0</v>
       </c>
       <c r="G116">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H116" s="1">
         <v>0</v>
       </c>
       <c r="I116">
-        <f>(J116*(B116))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J116" s="5">
         <v>0</v>
       </c>
-      <c r="L116" s="5"/>
+      <c r="K116" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L116" s="5">
+        <v>0</v>
+      </c>
       <c r="M116" s="2">
-        <f>(N116*B116)/1</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N116" s="7">
@@ -5959,36 +6637,42 @@
         <v>0</v>
       </c>
       <c r="C117" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D117" s="5">
         <v>0</v>
       </c>
       <c r="E117">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F117" s="5">
         <v>0</v>
       </c>
       <c r="G117">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H117" s="1">
         <v>0</v>
       </c>
       <c r="I117">
-        <f>(J117*(B117))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J117" s="5">
         <v>0</v>
       </c>
-      <c r="L117" s="5"/>
+      <c r="K117" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L117" s="5">
+        <v>0</v>
+      </c>
       <c r="M117" s="2">
-        <f>(N117*B117)/1</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N117" s="7">
@@ -6003,36 +6687,42 @@
         <v>0</v>
       </c>
       <c r="C118" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D118" s="5">
         <v>0</v>
       </c>
       <c r="E118">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F118" s="5">
         <v>0</v>
       </c>
       <c r="G118">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H118" s="1">
         <v>0</v>
       </c>
       <c r="I118">
-        <f>(J118*(B118))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J118" s="5">
         <v>0</v>
       </c>
-      <c r="L118" s="5"/>
+      <c r="K118" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L118" s="5">
+        <v>0</v>
+      </c>
       <c r="M118" s="2">
-        <f>(N118*B118)/1</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N118" s="7">
@@ -6047,36 +6737,42 @@
         <v>0</v>
       </c>
       <c r="C119" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D119" s="5">
         <v>0</v>
       </c>
       <c r="E119">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F119" s="5">
         <v>0</v>
       </c>
       <c r="G119">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H119" s="1">
         <v>0</v>
       </c>
       <c r="I119">
-        <f>(J119*(B119))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J119" s="5">
         <v>0</v>
       </c>
-      <c r="L119" s="5"/>
+      <c r="K119" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L119" s="5">
+        <v>0</v>
+      </c>
       <c r="M119" s="2">
-        <f>(N119*B119)/1</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N119" s="7">
@@ -6091,36 +6787,42 @@
         <v>0</v>
       </c>
       <c r="C120" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D120" s="5">
         <v>0</v>
       </c>
       <c r="E120">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F120" s="5">
         <v>0</v>
       </c>
       <c r="G120">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H120" s="1">
         <v>0</v>
       </c>
       <c r="I120">
-        <f>(J120*(B120))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J120" s="5">
         <v>0</v>
       </c>
-      <c r="L120" s="5"/>
+      <c r="K120" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L120" s="5">
+        <v>0</v>
+      </c>
       <c r="M120" s="2">
-        <f>(N120*B120)/1</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N120" s="7">
@@ -6135,36 +6837,42 @@
         <v>0</v>
       </c>
       <c r="C121" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D121" s="5">
         <v>0</v>
       </c>
       <c r="E121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F121" s="5">
         <v>0</v>
       </c>
       <c r="G121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H121" s="1">
         <v>0</v>
       </c>
       <c r="I121">
-        <f>(J121*(B121))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J121" s="5">
         <v>0</v>
       </c>
-      <c r="L121" s="5"/>
+      <c r="K121" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L121" s="5">
+        <v>0</v>
+      </c>
       <c r="M121" s="2">
-        <f>(N121*B121)/1</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N121" s="7">
@@ -6179,36 +6887,42 @@
         <v>0</v>
       </c>
       <c r="C122" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D122" s="5">
         <v>0</v>
       </c>
       <c r="E122">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F122" s="5">
         <v>0</v>
       </c>
       <c r="G122">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H122" s="1">
         <v>0</v>
       </c>
       <c r="I122">
-        <f>(J122*(B122))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J122" s="5">
         <v>0</v>
       </c>
-      <c r="L122" s="5"/>
+      <c r="K122" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L122" s="5">
+        <v>0</v>
+      </c>
       <c r="M122" s="2">
-        <f>(N122*B122)/1</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N122" s="7">
@@ -6223,36 +6937,42 @@
         <v>0</v>
       </c>
       <c r="C123" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D123" s="5">
         <v>0</v>
       </c>
       <c r="E123">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F123" s="5">
         <v>0</v>
       </c>
       <c r="G123">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H123" s="1">
         <v>0</v>
       </c>
       <c r="I123">
-        <f>(J123*(B123))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J123" s="5">
         <v>0</v>
       </c>
-      <c r="L123" s="5"/>
+      <c r="K123" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L123" s="5">
+        <v>0</v>
+      </c>
       <c r="M123" s="2">
-        <f>(N123*B123)/1</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N123" s="7">
@@ -6267,36 +6987,42 @@
         <v>0</v>
       </c>
       <c r="C124" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D124" s="5">
         <v>0</v>
       </c>
       <c r="E124">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F124" s="5">
         <v>0</v>
       </c>
       <c r="G124">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H124" s="1">
         <v>0</v>
       </c>
       <c r="I124">
-        <f>(J124*(B124))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J124" s="5">
         <v>0</v>
       </c>
-      <c r="L124" s="5"/>
+      <c r="K124" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L124" s="5">
+        <v>0</v>
+      </c>
       <c r="M124" s="2">
-        <f>(N124*B124)/1</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N124" s="7">
@@ -6311,36 +7037,42 @@
         <v>0</v>
       </c>
       <c r="C125" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D125" s="5">
         <v>0</v>
       </c>
       <c r="E125">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F125" s="5">
         <v>0</v>
       </c>
       <c r="G125">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H125" s="1">
         <v>0</v>
       </c>
       <c r="I125">
-        <f>(J125*(B125))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J125" s="5">
         <v>0</v>
       </c>
-      <c r="L125" s="5"/>
+      <c r="K125" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L125" s="5">
+        <v>0</v>
+      </c>
       <c r="M125" s="2">
-        <f>(N125*B125)/1</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N125" s="7">
@@ -6355,36 +7087,42 @@
         <v>0</v>
       </c>
       <c r="C126" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D126" s="5">
         <v>0</v>
       </c>
       <c r="E126">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F126" s="5">
         <v>0</v>
       </c>
       <c r="G126">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H126" s="1">
         <v>0</v>
       </c>
       <c r="I126">
-        <f>(J126*(B126))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J126" s="5">
         <v>0</v>
       </c>
-      <c r="L126" s="5"/>
+      <c r="K126" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L126" s="5">
+        <v>0</v>
+      </c>
       <c r="M126" s="2">
-        <f>(N126*B126)/1</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N126" s="7">
@@ -6399,36 +7137,42 @@
         <v>0</v>
       </c>
       <c r="C127" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D127" s="5">
         <v>0</v>
       </c>
       <c r="E127">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F127" s="5">
         <v>0</v>
       </c>
       <c r="G127">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H127" s="1">
         <v>0</v>
       </c>
       <c r="I127">
-        <f>(J127*(B127))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J127" s="5">
         <v>0</v>
       </c>
-      <c r="L127" s="5"/>
+      <c r="K127" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L127" s="5">
+        <v>0</v>
+      </c>
       <c r="M127" s="2">
-        <f>(N127*B127)/1</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N127" s="7">
@@ -6443,36 +7187,42 @@
         <v>0</v>
       </c>
       <c r="C128" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D128" s="5">
         <v>0</v>
       </c>
       <c r="E128">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F128" s="5">
         <v>0</v>
       </c>
       <c r="G128">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H128" s="1">
         <v>0</v>
       </c>
       <c r="I128">
-        <f>(J128*(B128))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J128" s="5">
         <v>0</v>
       </c>
-      <c r="L128" s="5"/>
+      <c r="K128" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L128" s="5">
+        <v>0</v>
+      </c>
       <c r="M128" s="2">
-        <f>(N128*B128)/1</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N128" s="7">
